--- a/TeoriaAprendizajeDeMaquina.xlsx
+++ b/TeoriaAprendizajeDeMaquina.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amalvarezme/Documents/GitHub/AprendizajeMaquina/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amalvarezme/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049E2224-F4AB-BE41-AC5F-01880CC3E2AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA321BF-EF00-0540-870C-B61560266C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36160" yWindow="1860" windowWidth="28800" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ficha asignaturas " sheetId="1" r:id="rId1"/>
@@ -415,27 +415,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Evaluación:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">
-• Parciales Teórico-prácticos (70%). Parcial 1: Semana 6, Parcial 2: Semana 12, Parcial 3: Semana 15
-• Proyecto (30%). Entrega 1: Semana 8, Entrega 2: Semana 16 </t>
-    </r>
-  </si>
-  <si>
     <t>6.2. CONCEPTOS PREVIOS NECESARIOS</t>
   </si>
   <si>
@@ -828,12 +807,33 @@
   <si>
     <t>https://github.com/amalvarezme/AprendizajeMaquina</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Evaluación:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">
+• Parciales Teórico-prácticos (75%). Parcial 1: Semana 6, Parcial 2: Semana 12, Parcial 3: Semana 15
+• Proyecto (25%). Entrega 1: Semana 8, Entrega 2: Semana 16 </t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -983,6 +983,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1773,150 +1779,6 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1935,9 +1797,115 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1947,6 +1915,33 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1965,93 +1960,104 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2274,8 +2280,8 @@
   </sheetPr>
   <dimension ref="B1:J1006"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M123" sqref="M123"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="L62" sqref="L62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2290,30 +2296,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="137" t="s">
+      <c r="B1" s="211" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="133"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="163"/>
     </row>
     <row r="2" spans="2:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="139" t="s">
+      <c r="B2" s="212" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="141"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="166"/>
     </row>
     <row r="3" spans="2:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2"/>
@@ -2327,17 +2333,17 @@
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="131" t="s">
+      <c r="B4" s="191" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="127"/>
-      <c r="D4" s="127"/>
-      <c r="E4" s="127"/>
-      <c r="F4" s="127"/>
-      <c r="G4" s="127"/>
-      <c r="H4" s="127"/>
-      <c r="I4" s="127"/>
-      <c r="J4" s="128"/>
+      <c r="C4" s="158"/>
+      <c r="D4" s="158"/>
+      <c r="E4" s="158"/>
+      <c r="F4" s="158"/>
+      <c r="G4" s="158"/>
+      <c r="H4" s="158"/>
+      <c r="I4" s="158"/>
+      <c r="J4" s="156"/>
     </row>
     <row r="5" spans="2:10" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="6" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2380,11 +2386,11 @@
       <c r="J8" s="11"/>
     </row>
     <row r="9" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="142" t="s">
+      <c r="B9" s="213" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="127"/>
-      <c r="D9" s="128"/>
+      <c r="C9" s="158"/>
+      <c r="D9" s="156"/>
       <c r="E9" s="14"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
@@ -2393,79 +2399,79 @@
       <c r="J9" s="11"/>
     </row>
     <row r="10" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="142" t="s">
+      <c r="B10" s="213" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="127"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="143" t="s">
+      <c r="C10" s="158"/>
+      <c r="D10" s="156"/>
+      <c r="E10" s="214" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="127"/>
-      <c r="G10" s="127"/>
-      <c r="H10" s="127"/>
-      <c r="I10" s="127"/>
-      <c r="J10" s="128"/>
+      <c r="F10" s="158"/>
+      <c r="G10" s="158"/>
+      <c r="H10" s="158"/>
+      <c r="I10" s="158"/>
+      <c r="J10" s="156"/>
     </row>
     <row r="11" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="142" t="s">
+      <c r="B11" s="213" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="127"/>
-      <c r="D11" s="128"/>
-      <c r="E11" s="126" t="s">
+      <c r="C11" s="158"/>
+      <c r="D11" s="156"/>
+      <c r="E11" s="215" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="127"/>
-      <c r="G11" s="127"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="127"/>
-      <c r="J11" s="128"/>
+      <c r="F11" s="158"/>
+      <c r="G11" s="158"/>
+      <c r="H11" s="158"/>
+      <c r="I11" s="158"/>
+      <c r="J11" s="156"/>
     </row>
     <row r="12" spans="2:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="144" t="s">
+      <c r="B12" s="216" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="127"/>
-      <c r="D12" s="128"/>
-      <c r="E12" s="126" t="s">
+      <c r="C12" s="158"/>
+      <c r="D12" s="156"/>
+      <c r="E12" s="215" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="127"/>
-      <c r="G12" s="127"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="127"/>
-      <c r="J12" s="128"/>
+      <c r="F12" s="158"/>
+      <c r="G12" s="158"/>
+      <c r="H12" s="158"/>
+      <c r="I12" s="158"/>
+      <c r="J12" s="156"/>
     </row>
     <row r="13" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="129" t="s">
+      <c r="B13" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="127"/>
-      <c r="D13" s="128"/>
-      <c r="E13" s="129" t="s">
+      <c r="C13" s="158"/>
+      <c r="D13" s="156"/>
+      <c r="E13" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="127"/>
-      <c r="G13" s="127"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="127"/>
-      <c r="J13" s="128"/>
+      <c r="F13" s="158"/>
+      <c r="G13" s="158"/>
+      <c r="H13" s="158"/>
+      <c r="I13" s="158"/>
+      <c r="J13" s="156"/>
     </row>
     <row r="14" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="129" t="s">
+      <c r="B14" s="217" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="127"/>
-      <c r="D14" s="128"/>
-      <c r="E14" s="130" t="s">
+      <c r="C14" s="158"/>
+      <c r="D14" s="156"/>
+      <c r="E14" s="220" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="127"/>
-      <c r="G14" s="127"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="127"/>
-      <c r="J14" s="128"/>
+      <c r="F14" s="158"/>
+      <c r="G14" s="158"/>
+      <c r="H14" s="158"/>
+      <c r="I14" s="158"/>
+      <c r="J14" s="156"/>
     </row>
     <row r="15" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="17"/>
@@ -2526,10 +2532,10 @@
       <c r="J19" s="28"/>
     </row>
     <row r="20" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="145" t="s">
+      <c r="B20" s="218" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="128"/>
+      <c r="C20" s="156"/>
       <c r="D20" s="29">
         <v>6</v>
       </c>
@@ -2540,10 +2546,10 @@
         <v>3</v>
       </c>
       <c r="G20" s="29"/>
-      <c r="H20" s="131" t="s">
+      <c r="H20" s="191" t="s">
         <v>20</v>
       </c>
-      <c r="I20" s="128"/>
+      <c r="I20" s="156"/>
       <c r="J20" s="31">
         <f>+F20+D20</f>
         <v>9</v>
@@ -2559,14 +2565,14 @@
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
       <c r="H21" s="26"/>
-      <c r="I21" s="132"/>
-      <c r="J21" s="133"/>
+      <c r="I21" s="221"/>
+      <c r="J21" s="163"/>
     </row>
     <row r="22" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="146" t="s">
+      <c r="B22" s="219" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="128"/>
+      <c r="C22" s="156"/>
       <c r="D22" s="32">
         <v>16</v>
       </c>
@@ -2578,10 +2584,10 @@
         <v>144</v>
       </c>
       <c r="G22" s="32"/>
-      <c r="H22" s="131" t="s">
+      <c r="H22" s="191" t="s">
         <v>24</v>
       </c>
-      <c r="I22" s="128"/>
+      <c r="I22" s="156"/>
       <c r="J22" s="31">
         <f>+ROUNDUP(F22/48,0)</f>
         <v>3</v>
@@ -2610,17 +2616,17 @@
       <c r="J24" s="44"/>
     </row>
     <row r="25" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="134" t="s">
+      <c r="B25" s="208" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="135"/>
-      <c r="D25" s="135"/>
-      <c r="E25" s="135"/>
-      <c r="F25" s="135"/>
-      <c r="G25" s="135"/>
-      <c r="H25" s="135"/>
-      <c r="I25" s="135"/>
-      <c r="J25" s="136"/>
+      <c r="C25" s="209"/>
+      <c r="D25" s="209"/>
+      <c r="E25" s="209"/>
+      <c r="F25" s="209"/>
+      <c r="G25" s="209"/>
+      <c r="H25" s="209"/>
+      <c r="I25" s="209"/>
+      <c r="J25" s="210"/>
     </row>
     <row r="26" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="45"/>
@@ -2762,19 +2768,19 @@
       <c r="C38" s="64">
         <v>85</v>
       </c>
-      <c r="D38" s="150" t="s">
+      <c r="D38" s="205" t="s">
         <v>36</v>
       </c>
-      <c r="E38" s="148"/>
+      <c r="E38" s="203"/>
       <c r="F38" s="31">
         <f>+D20*16</f>
         <v>96</v>
       </c>
       <c r="G38" s="65"/>
-      <c r="H38" s="147" t="s">
+      <c r="H38" s="202" t="s">
         <v>37</v>
       </c>
-      <c r="I38" s="148"/>
+      <c r="I38" s="203"/>
       <c r="J38" s="32">
         <f>+(F38*C38)/100</f>
         <v>81.599999999999994</v>
@@ -2898,22 +2904,22 @@
       <c r="J47" s="4"/>
     </row>
     <row r="48" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="151" t="s">
+      <c r="B48" s="206" t="s">
         <v>47</v>
       </c>
-      <c r="C48" s="154" t="s">
+      <c r="C48" s="207" t="s">
         <v>48</v>
       </c>
-      <c r="D48" s="127"/>
-      <c r="E48" s="127"/>
-      <c r="F48" s="127"/>
-      <c r="G48" s="127"/>
-      <c r="H48" s="127"/>
-      <c r="I48" s="127"/>
-      <c r="J48" s="128"/>
+      <c r="D48" s="158"/>
+      <c r="E48" s="158"/>
+      <c r="F48" s="158"/>
+      <c r="G48" s="158"/>
+      <c r="H48" s="158"/>
+      <c r="I48" s="158"/>
+      <c r="J48" s="156"/>
     </row>
     <row r="49" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="152"/>
+      <c r="B49" s="160"/>
       <c r="C49" s="6" t="s">
         <v>49</v>
       </c>
@@ -2926,7 +2932,7 @@
       <c r="J49" s="11"/>
     </row>
     <row r="50" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="152"/>
+      <c r="B50" s="160"/>
       <c r="C50" s="73" t="s">
         <v>50</v>
       </c>
@@ -2943,55 +2949,55 @@
       <c r="J50" s="76"/>
     </row>
     <row r="51" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="152"/>
+      <c r="B51" s="160"/>
       <c r="C51" s="77">
         <v>4100904</v>
       </c>
-      <c r="D51" s="149" t="s">
+      <c r="D51" s="204" t="s">
         <v>53</v>
       </c>
-      <c r="E51" s="127"/>
-      <c r="F51" s="127"/>
-      <c r="G51" s="127"/>
-      <c r="H51" s="128"/>
-      <c r="I51" s="149" t="s">
+      <c r="E51" s="158"/>
+      <c r="F51" s="158"/>
+      <c r="G51" s="158"/>
+      <c r="H51" s="156"/>
+      <c r="I51" s="204" t="s">
         <v>54</v>
       </c>
-      <c r="J51" s="128"/>
+      <c r="J51" s="156"/>
     </row>
     <row r="52" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="152"/>
+      <c r="B52" s="160"/>
       <c r="C52" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="D52" s="149" t="s">
+      <c r="D52" s="204" t="s">
         <v>56</v>
       </c>
-      <c r="E52" s="127"/>
-      <c r="F52" s="127"/>
-      <c r="G52" s="127"/>
-      <c r="H52" s="128"/>
-      <c r="I52" s="149" t="s">
+      <c r="E52" s="158"/>
+      <c r="F52" s="158"/>
+      <c r="G52" s="158"/>
+      <c r="H52" s="156"/>
+      <c r="I52" s="204" t="s">
         <v>54</v>
       </c>
-      <c r="J52" s="128"/>
+      <c r="J52" s="156"/>
     </row>
     <row r="53" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="153"/>
+      <c r="B53" s="171"/>
       <c r="C53" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="D53" s="149" t="s">
+      <c r="D53" s="204" t="s">
         <v>58</v>
       </c>
-      <c r="E53" s="127"/>
-      <c r="F53" s="127"/>
-      <c r="G53" s="127"/>
-      <c r="H53" s="128"/>
-      <c r="I53" s="149" t="s">
+      <c r="E53" s="158"/>
+      <c r="F53" s="158"/>
+      <c r="G53" s="158"/>
+      <c r="H53" s="156"/>
+      <c r="I53" s="204" t="s">
         <v>54</v>
       </c>
-      <c r="J53" s="128"/>
+      <c r="J53" s="156"/>
     </row>
     <row r="54" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="78"/>
@@ -3018,17 +3024,17 @@
       <c r="J55" s="3"/>
     </row>
     <row r="56" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="155" t="s">
+      <c r="B56" s="199" t="s">
         <v>60</v>
       </c>
-      <c r="C56" s="140"/>
-      <c r="D56" s="140"/>
-      <c r="E56" s="140"/>
-      <c r="F56" s="140"/>
-      <c r="G56" s="140"/>
-      <c r="H56" s="140"/>
-      <c r="I56" s="140"/>
-      <c r="J56" s="140"/>
+      <c r="C56" s="165"/>
+      <c r="D56" s="165"/>
+      <c r="E56" s="165"/>
+      <c r="F56" s="165"/>
+      <c r="G56" s="165"/>
+      <c r="H56" s="165"/>
+      <c r="I56" s="165"/>
+      <c r="J56" s="165"/>
     </row>
     <row r="57" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B57" s="21"/>
@@ -3055,73 +3061,73 @@
       <c r="J58" s="82"/>
     </row>
     <row r="59" spans="2:10" ht="58" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="156" t="s">
+      <c r="B59" s="200" t="s">
         <v>62</v>
       </c>
-      <c r="C59" s="138"/>
-      <c r="D59" s="138"/>
-      <c r="E59" s="138"/>
-      <c r="F59" s="138"/>
-      <c r="G59" s="138"/>
-      <c r="H59" s="138"/>
-      <c r="I59" s="138"/>
-      <c r="J59" s="133"/>
+      <c r="C59" s="162"/>
+      <c r="D59" s="162"/>
+      <c r="E59" s="162"/>
+      <c r="F59" s="162"/>
+      <c r="G59" s="162"/>
+      <c r="H59" s="162"/>
+      <c r="I59" s="162"/>
+      <c r="J59" s="163"/>
     </row>
     <row r="60" spans="2:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="157" t="s">
+      <c r="B60" s="201" t="s">
         <v>63</v>
       </c>
-      <c r="C60" s="140"/>
-      <c r="D60" s="140"/>
-      <c r="E60" s="140"/>
-      <c r="F60" s="140"/>
-      <c r="G60" s="140"/>
-      <c r="H60" s="140"/>
-      <c r="I60" s="140"/>
-      <c r="J60" s="141"/>
+      <c r="C60" s="165"/>
+      <c r="D60" s="165"/>
+      <c r="E60" s="165"/>
+      <c r="F60" s="165"/>
+      <c r="G60" s="165"/>
+      <c r="H60" s="165"/>
+      <c r="I60" s="165"/>
+      <c r="J60" s="166"/>
     </row>
     <row r="61" spans="2:10" ht="163" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="157" t="s">
+      <c r="B61" s="201" t="s">
         <v>64</v>
       </c>
-      <c r="C61" s="140"/>
-      <c r="D61" s="140"/>
-      <c r="E61" s="140"/>
-      <c r="F61" s="140"/>
-      <c r="G61" s="140"/>
-      <c r="H61" s="140"/>
-      <c r="I61" s="140"/>
-      <c r="J61" s="141"/>
+      <c r="C61" s="165"/>
+      <c r="D61" s="165"/>
+      <c r="E61" s="165"/>
+      <c r="F61" s="165"/>
+      <c r="G61" s="165"/>
+      <c r="H61" s="165"/>
+      <c r="I61" s="165"/>
+      <c r="J61" s="166"/>
     </row>
     <row r="62" spans="2:10" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="157" t="s">
+      <c r="B62" s="201" t="s">
         <v>65</v>
       </c>
-      <c r="C62" s="140"/>
-      <c r="D62" s="140"/>
-      <c r="E62" s="140"/>
-      <c r="F62" s="140"/>
-      <c r="G62" s="140"/>
-      <c r="H62" s="140"/>
-      <c r="I62" s="140"/>
-      <c r="J62" s="141"/>
+      <c r="C62" s="165"/>
+      <c r="D62" s="165"/>
+      <c r="E62" s="165"/>
+      <c r="F62" s="165"/>
+      <c r="G62" s="165"/>
+      <c r="H62" s="165"/>
+      <c r="I62" s="165"/>
+      <c r="J62" s="166"/>
     </row>
     <row r="63" spans="2:10" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="158" t="s">
-        <v>66</v>
-      </c>
-      <c r="C63" s="159"/>
-      <c r="D63" s="159"/>
-      <c r="E63" s="159"/>
-      <c r="F63" s="159"/>
-      <c r="G63" s="159"/>
-      <c r="H63" s="159"/>
-      <c r="I63" s="159"/>
-      <c r="J63" s="160"/>
+      <c r="B63" s="233" t="s">
+        <v>156</v>
+      </c>
+      <c r="C63" s="168"/>
+      <c r="D63" s="168"/>
+      <c r="E63" s="168"/>
+      <c r="F63" s="168"/>
+      <c r="G63" s="168"/>
+      <c r="H63" s="168"/>
+      <c r="I63" s="168"/>
+      <c r="J63" s="169"/>
     </row>
     <row r="64" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B64" s="83" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C64" s="84"/>
       <c r="D64" s="84"/>
@@ -3133,17 +3139,17 @@
       <c r="J64" s="85"/>
     </row>
     <row r="65" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="161" t="s">
-        <v>68</v>
-      </c>
-      <c r="C65" s="127"/>
-      <c r="D65" s="127"/>
-      <c r="E65" s="127"/>
-      <c r="F65" s="127"/>
-      <c r="G65" s="127"/>
-      <c r="H65" s="127"/>
-      <c r="I65" s="127"/>
-      <c r="J65" s="128"/>
+      <c r="B65" s="190" t="s">
+        <v>67</v>
+      </c>
+      <c r="C65" s="158"/>
+      <c r="D65" s="158"/>
+      <c r="E65" s="158"/>
+      <c r="F65" s="158"/>
+      <c r="G65" s="158"/>
+      <c r="H65" s="158"/>
+      <c r="I65" s="158"/>
+      <c r="J65" s="156"/>
     </row>
     <row r="66" spans="2:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B66" s="86"/>
@@ -3169,7 +3175,7 @@
     </row>
     <row r="68" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B68" s="87" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C68" s="86"/>
       <c r="D68" s="86"/>
@@ -3192,68 +3198,68 @@
       <c r="J69" s="89"/>
     </row>
     <row r="70" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B70" s="131" t="s">
-        <v>70</v>
-      </c>
-      <c r="C70" s="127"/>
-      <c r="D70" s="127"/>
-      <c r="E70" s="128"/>
+      <c r="B70" s="191" t="s">
+        <v>69</v>
+      </c>
+      <c r="C70" s="158"/>
+      <c r="D70" s="158"/>
+      <c r="E70" s="156"/>
       <c r="F70" s="90"/>
       <c r="G70" s="91"/>
-      <c r="H70" s="162" t="s">
+      <c r="H70" s="192" t="s">
+        <v>70</v>
+      </c>
+      <c r="I70" s="158"/>
+      <c r="J70" s="156"/>
+    </row>
+    <row r="71" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B71" s="159" t="s">
         <v>71</v>
       </c>
-      <c r="I70" s="127"/>
-      <c r="J70" s="128"/>
-    </row>
-    <row r="71" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B71" s="163" t="s">
+      <c r="C71" s="161" t="s">
         <v>72</v>
       </c>
-      <c r="C71" s="164" t="s">
+      <c r="D71" s="162"/>
+      <c r="E71" s="163"/>
+      <c r="F71" s="93" t="s">
+        <v>71</v>
+      </c>
+      <c r="G71" s="193" t="s">
         <v>73</v>
       </c>
-      <c r="D71" s="138"/>
-      <c r="E71" s="133"/>
-      <c r="F71" s="93" t="s">
-        <v>72</v>
-      </c>
-      <c r="G71" s="198" t="s">
+      <c r="H71" s="194"/>
+      <c r="I71" s="194"/>
+      <c r="J71" s="195"/>
+    </row>
+    <row r="72" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B72" s="160"/>
+      <c r="C72" s="164"/>
+      <c r="D72" s="165"/>
+      <c r="E72" s="166"/>
+      <c r="F72" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="H71" s="199"/>
-      <c r="I71" s="199"/>
-      <c r="J71" s="200"/>
-    </row>
-    <row r="72" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B72" s="152"/>
-      <c r="C72" s="165"/>
-      <c r="D72" s="140"/>
-      <c r="E72" s="141"/>
-      <c r="F72" s="16" t="s">
+      <c r="G72" s="196" t="s">
         <v>75</v>
       </c>
-      <c r="G72" s="201" t="s">
+      <c r="H72" s="197"/>
+      <c r="I72" s="197"/>
+      <c r="J72" s="198"/>
+    </row>
+    <row r="73" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B73" s="171"/>
+      <c r="C73" s="167"/>
+      <c r="D73" s="168"/>
+      <c r="E73" s="169"/>
+      <c r="F73" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="H72" s="202"/>
-      <c r="I72" s="202"/>
-      <c r="J72" s="203"/>
-    </row>
-    <row r="73" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B73" s="153"/>
-      <c r="C73" s="166"/>
-      <c r="D73" s="159"/>
-      <c r="E73" s="160"/>
-      <c r="F73" s="16" t="s">
+      <c r="G73" s="196" t="s">
         <v>77</v>
       </c>
-      <c r="G73" s="201" t="s">
-        <v>78</v>
-      </c>
-      <c r="H73" s="202"/>
-      <c r="I73" s="202"/>
-      <c r="J73" s="203"/>
+      <c r="H73" s="197"/>
+      <c r="I73" s="197"/>
+      <c r="J73" s="198"/>
     </row>
     <row r="74" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="94"/>
@@ -3267,420 +3273,420 @@
       <c r="J74" s="96"/>
     </row>
     <row r="75" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="163" t="s">
-        <v>75</v>
-      </c>
-      <c r="C75" s="164" t="s">
+      <c r="B75" s="159" t="s">
+        <v>74</v>
+      </c>
+      <c r="C75" s="161" t="s">
+        <v>78</v>
+      </c>
+      <c r="D75" s="162"/>
+      <c r="E75" s="163"/>
+      <c r="F75" s="97" t="s">
+        <v>71</v>
+      </c>
+      <c r="G75" s="149" t="s">
         <v>79</v>
       </c>
-      <c r="D75" s="138"/>
-      <c r="E75" s="133"/>
-      <c r="F75" s="97" t="s">
-        <v>72</v>
-      </c>
-      <c r="G75" s="204" t="s">
+      <c r="H75" s="150"/>
+      <c r="I75" s="150"/>
+      <c r="J75" s="151"/>
+    </row>
+    <row r="76" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B76" s="160"/>
+      <c r="C76" s="164"/>
+      <c r="D76" s="165"/>
+      <c r="E76" s="166"/>
+      <c r="F76" s="97" t="s">
+        <v>74</v>
+      </c>
+      <c r="G76" s="140" t="s">
         <v>80</v>
       </c>
-      <c r="H75" s="205"/>
-      <c r="I75" s="205"/>
-      <c r="J75" s="206"/>
-    </row>
-    <row r="76" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B76" s="152"/>
-      <c r="C76" s="165"/>
-      <c r="D76" s="140"/>
-      <c r="E76" s="141"/>
-      <c r="F76" s="97" t="s">
-        <v>75</v>
-      </c>
-      <c r="G76" s="208" t="s">
+      <c r="H76" s="141"/>
+      <c r="I76" s="141"/>
+      <c r="J76" s="142"/>
+    </row>
+    <row r="77" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B77" s="160"/>
+      <c r="C77" s="164"/>
+      <c r="D77" s="165"/>
+      <c r="E77" s="166"/>
+      <c r="F77" s="97" t="s">
+        <v>76</v>
+      </c>
+      <c r="G77" s="140" t="s">
         <v>81</v>
       </c>
-      <c r="H76" s="209"/>
-      <c r="I76" s="209"/>
-      <c r="J76" s="210"/>
-    </row>
-    <row r="77" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B77" s="152"/>
-      <c r="C77" s="165"/>
-      <c r="D77" s="140"/>
-      <c r="E77" s="141"/>
-      <c r="F77" s="97" t="s">
-        <v>77</v>
-      </c>
-      <c r="G77" s="208" t="s">
+      <c r="H77" s="141"/>
+      <c r="I77" s="141"/>
+      <c r="J77" s="142"/>
+    </row>
+    <row r="78" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B78" s="157"/>
+      <c r="C78" s="158"/>
+      <c r="D78" s="158"/>
+      <c r="E78" s="158"/>
+      <c r="F78" s="158"/>
+      <c r="G78" s="158"/>
+      <c r="H78" s="158"/>
+      <c r="I78" s="158"/>
+      <c r="J78" s="156"/>
+    </row>
+    <row r="79" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B79" s="159" t="s">
+        <v>76</v>
+      </c>
+      <c r="C79" s="161" t="s">
         <v>82</v>
       </c>
-      <c r="H77" s="209"/>
-      <c r="I77" s="209"/>
-      <c r="J77" s="210"/>
-    </row>
-    <row r="78" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B78" s="174"/>
-      <c r="C78" s="127"/>
-      <c r="D78" s="127"/>
-      <c r="E78" s="127"/>
-      <c r="F78" s="127"/>
-      <c r="G78" s="127"/>
-      <c r="H78" s="127"/>
-      <c r="I78" s="127"/>
-      <c r="J78" s="128"/>
-    </row>
-    <row r="79" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B79" s="163" t="s">
-        <v>77</v>
-      </c>
-      <c r="C79" s="164" t="s">
+      <c r="D79" s="162"/>
+      <c r="E79" s="163"/>
+      <c r="F79" s="97" t="s">
+        <v>71</v>
+      </c>
+      <c r="G79" s="149" t="s">
         <v>83</v>
       </c>
-      <c r="D79" s="138"/>
-      <c r="E79" s="133"/>
-      <c r="F79" s="97" t="s">
-        <v>72</v>
-      </c>
-      <c r="G79" s="204" t="s">
+      <c r="H79" s="150"/>
+      <c r="I79" s="150"/>
+      <c r="J79" s="151"/>
+    </row>
+    <row r="80" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B80" s="160"/>
+      <c r="C80" s="164"/>
+      <c r="D80" s="165"/>
+      <c r="E80" s="166"/>
+      <c r="F80" s="97" t="s">
+        <v>74</v>
+      </c>
+      <c r="G80" s="140" t="s">
         <v>84</v>
       </c>
-      <c r="H79" s="205"/>
-      <c r="I79" s="205"/>
-      <c r="J79" s="206"/>
-    </row>
-    <row r="80" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B80" s="152"/>
-      <c r="C80" s="165"/>
-      <c r="D80" s="140"/>
-      <c r="E80" s="141"/>
-      <c r="F80" s="97" t="s">
-        <v>75</v>
-      </c>
-      <c r="G80" s="208" t="s">
+      <c r="H80" s="141"/>
+      <c r="I80" s="141"/>
+      <c r="J80" s="142"/>
+    </row>
+    <row r="81" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B81" s="160"/>
+      <c r="C81" s="164"/>
+      <c r="D81" s="165"/>
+      <c r="E81" s="166"/>
+      <c r="F81" s="97" t="s">
+        <v>76</v>
+      </c>
+      <c r="G81" s="140" t="s">
         <v>85</v>
       </c>
-      <c r="H80" s="209"/>
-      <c r="I80" s="209"/>
-      <c r="J80" s="210"/>
-    </row>
-    <row r="81" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="152"/>
-      <c r="C81" s="165"/>
-      <c r="D81" s="140"/>
-      <c r="E81" s="141"/>
-      <c r="F81" s="97" t="s">
-        <v>77</v>
-      </c>
-      <c r="G81" s="208" t="s">
+      <c r="H81" s="141"/>
+      <c r="I81" s="141"/>
+      <c r="J81" s="142"/>
+    </row>
+    <row r="82" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B82" s="160"/>
+      <c r="C82" s="164"/>
+      <c r="D82" s="165"/>
+      <c r="E82" s="166"/>
+      <c r="F82" s="97" t="s">
         <v>86</v>
       </c>
-      <c r="H81" s="209"/>
-      <c r="I81" s="209"/>
-      <c r="J81" s="210"/>
-    </row>
-    <row r="82" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B82" s="152"/>
-      <c r="C82" s="165"/>
-      <c r="D82" s="140"/>
-      <c r="E82" s="141"/>
-      <c r="F82" s="97" t="s">
+      <c r="G82" s="140" t="s">
         <v>87</v>
       </c>
-      <c r="G82" s="208" t="s">
-        <v>88</v>
-      </c>
-      <c r="H82" s="209"/>
-      <c r="I82" s="209"/>
-      <c r="J82" s="210"/>
+      <c r="H82" s="141"/>
+      <c r="I82" s="141"/>
+      <c r="J82" s="142"/>
     </row>
     <row r="83" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B83" s="153"/>
-      <c r="C83" s="166"/>
-      <c r="D83" s="159"/>
-      <c r="E83" s="160"/>
+      <c r="B83" s="171"/>
+      <c r="C83" s="167"/>
+      <c r="D83" s="168"/>
+      <c r="E83" s="169"/>
       <c r="F83" s="98">
         <v>5</v>
       </c>
-      <c r="G83" s="209" t="s">
+      <c r="G83" s="141" t="s">
+        <v>88</v>
+      </c>
+      <c r="H83" s="141"/>
+      <c r="I83" s="141"/>
+      <c r="J83" s="142"/>
+    </row>
+    <row r="84" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B84" s="157"/>
+      <c r="C84" s="158"/>
+      <c r="D84" s="158"/>
+      <c r="E84" s="158"/>
+      <c r="F84" s="158"/>
+      <c r="G84" s="158"/>
+      <c r="H84" s="158"/>
+      <c r="I84" s="158"/>
+      <c r="J84" s="156"/>
+    </row>
+    <row r="85" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B85" s="172" t="s">
+        <v>86</v>
+      </c>
+      <c r="C85" s="170" t="s">
         <v>89</v>
       </c>
-      <c r="H83" s="209"/>
-      <c r="I83" s="209"/>
-      <c r="J83" s="210"/>
-    </row>
-    <row r="84" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B84" s="174"/>
-      <c r="C84" s="127"/>
-      <c r="D84" s="127"/>
-      <c r="E84" s="127"/>
-      <c r="F84" s="127"/>
-      <c r="G84" s="127"/>
-      <c r="H84" s="127"/>
-      <c r="I84" s="127"/>
-      <c r="J84" s="128"/>
-    </row>
-    <row r="85" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B85" s="170" t="s">
-        <v>87</v>
-      </c>
-      <c r="C85" s="175" t="s">
+      <c r="D85" s="162"/>
+      <c r="E85" s="162"/>
+      <c r="F85" s="97" t="s">
+        <v>71</v>
+      </c>
+      <c r="G85" s="149" t="s">
         <v>90</v>
       </c>
-      <c r="D85" s="138"/>
-      <c r="E85" s="138"/>
-      <c r="F85" s="97" t="s">
-        <v>72</v>
-      </c>
-      <c r="G85" s="204" t="s">
+      <c r="H85" s="150"/>
+      <c r="I85" s="150"/>
+      <c r="J85" s="151"/>
+    </row>
+    <row r="86" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B86" s="160"/>
+      <c r="C86" s="165"/>
+      <c r="D86" s="165"/>
+      <c r="E86" s="165"/>
+      <c r="F86" s="97" t="s">
+        <v>74</v>
+      </c>
+      <c r="G86" s="140" t="s">
         <v>91</v>
       </c>
-      <c r="H85" s="205"/>
-      <c r="I85" s="205"/>
-      <c r="J85" s="206"/>
-    </row>
-    <row r="86" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B86" s="152"/>
-      <c r="C86" s="140"/>
-      <c r="D86" s="140"/>
-      <c r="E86" s="140"/>
-      <c r="F86" s="97" t="s">
-        <v>75</v>
-      </c>
-      <c r="G86" s="208" t="s">
+      <c r="H86" s="141"/>
+      <c r="I86" s="141"/>
+      <c r="J86" s="142"/>
+    </row>
+    <row r="87" spans="2:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B87" s="160"/>
+      <c r="C87" s="165"/>
+      <c r="D87" s="165"/>
+      <c r="E87" s="165"/>
+      <c r="F87" s="97" t="s">
+        <v>76</v>
+      </c>
+      <c r="G87" s="140" t="s">
         <v>92</v>
       </c>
-      <c r="H86" s="209"/>
-      <c r="I86" s="209"/>
-      <c r="J86" s="210"/>
-    </row>
-    <row r="87" spans="2:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B87" s="152"/>
-      <c r="C87" s="140"/>
-      <c r="D87" s="140"/>
-      <c r="E87" s="140"/>
-      <c r="F87" s="97" t="s">
-        <v>77</v>
-      </c>
-      <c r="G87" s="208" t="s">
+      <c r="H87" s="141"/>
+      <c r="I87" s="141"/>
+      <c r="J87" s="142"/>
+    </row>
+    <row r="88" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B88" s="157"/>
+      <c r="C88" s="158"/>
+      <c r="D88" s="158"/>
+      <c r="E88" s="158"/>
+      <c r="F88" s="158"/>
+      <c r="G88" s="158"/>
+      <c r="H88" s="158"/>
+      <c r="I88" s="158"/>
+      <c r="J88" s="156"/>
+    </row>
+    <row r="89" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B89" s="172" t="s">
         <v>93</v>
       </c>
-      <c r="H87" s="209"/>
-      <c r="I87" s="209"/>
-      <c r="J87" s="210"/>
-    </row>
-    <row r="88" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B88" s="174"/>
-      <c r="C88" s="127"/>
-      <c r="D88" s="127"/>
-      <c r="E88" s="127"/>
-      <c r="F88" s="127"/>
-      <c r="G88" s="127"/>
-      <c r="H88" s="127"/>
-      <c r="I88" s="127"/>
-      <c r="J88" s="128"/>
-    </row>
-    <row r="89" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B89" s="170" t="s">
+      <c r="C89" s="161" t="s">
         <v>94</v>
       </c>
-      <c r="C89" s="164" t="s">
+      <c r="D89" s="162"/>
+      <c r="E89" s="163"/>
+      <c r="F89" s="97" t="s">
+        <v>71</v>
+      </c>
+      <c r="G89" s="149" t="s">
         <v>95</v>
       </c>
-      <c r="D89" s="138"/>
-      <c r="E89" s="133"/>
-      <c r="F89" s="97" t="s">
-        <v>72</v>
-      </c>
-      <c r="G89" s="204" t="s">
+      <c r="H89" s="150"/>
+      <c r="I89" s="150"/>
+      <c r="J89" s="151"/>
+    </row>
+    <row r="90" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B90" s="160"/>
+      <c r="C90" s="164"/>
+      <c r="D90" s="165"/>
+      <c r="E90" s="166"/>
+      <c r="F90" s="97" t="s">
+        <v>74</v>
+      </c>
+      <c r="G90" s="140" t="s">
         <v>96</v>
       </c>
-      <c r="H89" s="205"/>
-      <c r="I89" s="205"/>
-      <c r="J89" s="206"/>
-    </row>
-    <row r="90" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B90" s="152"/>
-      <c r="C90" s="165"/>
-      <c r="D90" s="140"/>
-      <c r="E90" s="141"/>
-      <c r="F90" s="97" t="s">
-        <v>75</v>
-      </c>
-      <c r="G90" s="208" t="s">
-        <v>97</v>
-      </c>
-      <c r="H90" s="209"/>
-      <c r="I90" s="209"/>
-      <c r="J90" s="210"/>
+      <c r="H90" s="141"/>
+      <c r="I90" s="141"/>
+      <c r="J90" s="142"/>
     </row>
     <row r="91" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B91" s="153"/>
-      <c r="C91" s="166"/>
-      <c r="D91" s="159"/>
-      <c r="E91" s="160"/>
+      <c r="B91" s="171"/>
+      <c r="C91" s="167"/>
+      <c r="D91" s="168"/>
+      <c r="E91" s="169"/>
       <c r="F91" s="97">
         <v>3</v>
       </c>
-      <c r="G91" s="208" t="s">
-        <v>98</v>
-      </c>
-      <c r="H91" s="209"/>
-      <c r="I91" s="209"/>
-      <c r="J91" s="210"/>
+      <c r="G91" s="140" t="s">
+        <v>97</v>
+      </c>
+      <c r="H91" s="141"/>
+      <c r="I91" s="141"/>
+      <c r="J91" s="142"/>
     </row>
     <row r="92" spans="2:10" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="93" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B93" s="171" t="s">
+      <c r="B93" s="173" t="s">
+        <v>98</v>
+      </c>
+      <c r="C93" s="161" t="s">
         <v>99</v>
       </c>
-      <c r="C93" s="164" t="s">
+      <c r="D93" s="162"/>
+      <c r="E93" s="163"/>
+      <c r="F93" s="97" t="s">
+        <v>71</v>
+      </c>
+      <c r="G93" s="149" t="s">
         <v>100</v>
       </c>
-      <c r="D93" s="138"/>
-      <c r="E93" s="133"/>
-      <c r="F93" s="97" t="s">
-        <v>72</v>
-      </c>
-      <c r="G93" s="204" t="s">
+      <c r="H93" s="150"/>
+      <c r="I93" s="150"/>
+      <c r="J93" s="151"/>
+    </row>
+    <row r="94" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B94" s="160"/>
+      <c r="C94" s="164"/>
+      <c r="D94" s="165"/>
+      <c r="E94" s="166"/>
+      <c r="F94" s="97" t="s">
+        <v>74</v>
+      </c>
+      <c r="G94" s="152" t="s">
         <v>101</v>
       </c>
-      <c r="H93" s="205"/>
-      <c r="I93" s="205"/>
-      <c r="J93" s="206"/>
-    </row>
-    <row r="94" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B94" s="152"/>
-      <c r="C94" s="165"/>
-      <c r="D94" s="140"/>
-      <c r="E94" s="141"/>
-      <c r="F94" s="97" t="s">
-        <v>75</v>
-      </c>
-      <c r="G94" s="211" t="s">
-        <v>102</v>
-      </c>
-      <c r="H94" s="212"/>
-      <c r="I94" s="212"/>
-      <c r="J94" s="213"/>
+      <c r="H94" s="153"/>
+      <c r="I94" s="153"/>
+      <c r="J94" s="154"/>
     </row>
     <row r="95" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B95" s="152"/>
-      <c r="C95" s="165"/>
-      <c r="D95" s="140"/>
-      <c r="E95" s="141"/>
+      <c r="B95" s="160"/>
+      <c r="C95" s="164"/>
+      <c r="D95" s="165"/>
+      <c r="E95" s="166"/>
       <c r="F95" s="97">
         <v>3</v>
       </c>
-      <c r="G95" s="208" t="s">
-        <v>103</v>
-      </c>
-      <c r="H95" s="209"/>
-      <c r="I95" s="209"/>
-      <c r="J95" s="210"/>
+      <c r="G95" s="140" t="s">
+        <v>102</v>
+      </c>
+      <c r="H95" s="141"/>
+      <c r="I95" s="141"/>
+      <c r="J95" s="142"/>
     </row>
     <row r="96" spans="2:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B96" s="153"/>
-      <c r="C96" s="166"/>
-      <c r="D96" s="159"/>
-      <c r="E96" s="160"/>
+      <c r="B96" s="171"/>
+      <c r="C96" s="167"/>
+      <c r="D96" s="168"/>
+      <c r="E96" s="169"/>
       <c r="F96" s="99">
         <v>4</v>
       </c>
-      <c r="G96" s="208" t="s">
-        <v>104</v>
-      </c>
-      <c r="H96" s="209"/>
-      <c r="I96" s="209"/>
-      <c r="J96" s="210"/>
+      <c r="G96" s="140" t="s">
+        <v>103</v>
+      </c>
+      <c r="H96" s="141"/>
+      <c r="I96" s="141"/>
+      <c r="J96" s="142"/>
     </row>
     <row r="97" spans="2:10" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="98" spans="2:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B98" s="194" t="s">
-        <v>141</v>
-      </c>
-      <c r="C98" s="183" t="s">
+      <c r="B98" s="176" t="s">
+        <v>140</v>
+      </c>
+      <c r="C98" s="177" t="s">
+        <v>147</v>
+      </c>
+      <c r="D98" s="162"/>
+      <c r="E98" s="163"/>
+      <c r="F98" s="97" t="s">
+        <v>71</v>
+      </c>
+      <c r="G98" s="178" t="s">
         <v>148</v>
       </c>
-      <c r="D98" s="138"/>
-      <c r="E98" s="133"/>
-      <c r="F98" s="97" t="s">
-        <v>72</v>
-      </c>
-      <c r="G98" s="214" t="s">
+      <c r="H98" s="179"/>
+      <c r="I98" s="179"/>
+      <c r="J98" s="180"/>
+    </row>
+    <row r="99" spans="2:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B99" s="160"/>
+      <c r="C99" s="164"/>
+      <c r="D99" s="165"/>
+      <c r="E99" s="166"/>
+      <c r="F99" s="97" t="s">
+        <v>74</v>
+      </c>
+      <c r="G99" s="181" t="s">
         <v>149</v>
       </c>
-      <c r="H98" s="215"/>
-      <c r="I98" s="215"/>
-      <c r="J98" s="216"/>
-    </row>
-    <row r="99" spans="2:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B99" s="152"/>
-      <c r="C99" s="165"/>
-      <c r="D99" s="140"/>
-      <c r="E99" s="141"/>
-      <c r="F99" s="97" t="s">
-        <v>75</v>
-      </c>
-      <c r="G99" s="195" t="s">
-        <v>150</v>
-      </c>
-      <c r="H99" s="196"/>
-      <c r="I99" s="196"/>
-      <c r="J99" s="197"/>
+      <c r="H99" s="182"/>
+      <c r="I99" s="182"/>
+      <c r="J99" s="183"/>
     </row>
     <row r="100" spans="2:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B100" s="152"/>
-      <c r="C100" s="165"/>
-      <c r="D100" s="140"/>
-      <c r="E100" s="141"/>
+      <c r="B100" s="160"/>
+      <c r="C100" s="164"/>
+      <c r="D100" s="165"/>
+      <c r="E100" s="166"/>
       <c r="F100" s="92">
         <v>3</v>
       </c>
-      <c r="G100" s="221" t="s">
+      <c r="G100" s="184" t="s">
+        <v>150</v>
+      </c>
+      <c r="H100" s="185"/>
+      <c r="I100" s="185"/>
+      <c r="J100" s="186"/>
+    </row>
+    <row r="101" spans="2:10" s="129" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B101" s="171"/>
+      <c r="C101" s="167"/>
+      <c r="D101" s="168"/>
+      <c r="E101" s="168"/>
+      <c r="F101" s="135">
+        <v>4</v>
+      </c>
+      <c r="G101" s="187" t="s">
         <v>151</v>
       </c>
-      <c r="H100" s="217"/>
-      <c r="I100" s="217"/>
-      <c r="J100" s="218"/>
-    </row>
-    <row r="101" spans="2:10" s="187" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B101" s="153"/>
-      <c r="C101" s="166"/>
-      <c r="D101" s="159"/>
-      <c r="E101" s="159"/>
-      <c r="F101" s="193">
-        <v>4</v>
-      </c>
-      <c r="G101" s="222" t="s">
-        <v>152</v>
-      </c>
-      <c r="H101" s="219"/>
-      <c r="I101" s="219"/>
-      <c r="J101" s="220"/>
-    </row>
-    <row r="102" spans="2:10" s="187" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B102" s="184"/>
-      <c r="C102" s="184"/>
-      <c r="D102" s="184"/>
-      <c r="E102" s="184"/>
-      <c r="F102" s="185"/>
-      <c r="G102" s="185"/>
-      <c r="H102" s="186"/>
-      <c r="I102" s="184"/>
-      <c r="J102" s="184"/>
-    </row>
-    <row r="103" spans="2:10" s="187" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B103" s="190" t="s">
-        <v>105</v>
-      </c>
-      <c r="C103" s="191"/>
-      <c r="D103" s="191"/>
-      <c r="E103" s="191"/>
-      <c r="F103" s="191"/>
-      <c r="G103" s="191"/>
-      <c r="H103" s="191"/>
-      <c r="I103" s="191"/>
-      <c r="J103" s="192"/>
+      <c r="H101" s="188"/>
+      <c r="I101" s="188"/>
+      <c r="J101" s="189"/>
+    </row>
+    <row r="102" spans="2:10" s="129" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B102" s="126"/>
+      <c r="C102" s="126"/>
+      <c r="D102" s="126"/>
+      <c r="E102" s="126"/>
+      <c r="F102" s="127"/>
+      <c r="G102" s="127"/>
+      <c r="H102" s="128"/>
+      <c r="I102" s="126"/>
+      <c r="J102" s="126"/>
+    </row>
+    <row r="103" spans="2:10" s="129" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B103" s="132" t="s">
+        <v>104</v>
+      </c>
+      <c r="C103" s="133"/>
+      <c r="D103" s="133"/>
+      <c r="E103" s="133"/>
+      <c r="F103" s="133"/>
+      <c r="G103" s="133"/>
+      <c r="H103" s="133"/>
+      <c r="I103" s="133"/>
+      <c r="J103" s="134"/>
     </row>
     <row r="104" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B104" s="188"/>
+      <c r="B104" s="130"/>
       <c r="C104" s="52"/>
       <c r="D104" s="52"/>
       <c r="E104" s="52"/>
@@ -3688,196 +3694,196 @@
       <c r="G104" s="52"/>
       <c r="H104" s="52"/>
       <c r="I104" s="52"/>
-      <c r="J104" s="189"/>
+      <c r="J104" s="131"/>
     </row>
     <row r="105" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B105" s="224" t="s">
+      <c r="B105" s="174" t="s">
+        <v>105</v>
+      </c>
+      <c r="C105" s="175"/>
+      <c r="D105" s="145" t="s">
         <v>106</v>
       </c>
-      <c r="C105" s="225"/>
-      <c r="D105" s="227" t="s">
+      <c r="E105" s="146"/>
+      <c r="F105" s="146"/>
+      <c r="G105" s="147"/>
+      <c r="H105" s="174" t="s">
         <v>107</v>
       </c>
-      <c r="E105" s="228"/>
-      <c r="F105" s="228"/>
-      <c r="G105" s="229"/>
-      <c r="H105" s="224" t="s">
+      <c r="I105" s="175"/>
+      <c r="J105" s="136" t="s">
         <v>108</v>
       </c>
-      <c r="I105" s="225"/>
-      <c r="J105" s="226" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="106" spans="2:10" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B106" s="223" t="s">
+      <c r="B106" s="143" t="s">
+        <v>152</v>
+      </c>
+      <c r="C106" s="144"/>
+      <c r="D106" s="148" t="s">
         <v>153</v>
       </c>
-      <c r="C106" s="207"/>
-      <c r="D106" s="230" t="s">
-        <v>154</v>
-      </c>
-      <c r="E106" s="209"/>
-      <c r="F106" s="209"/>
-      <c r="G106" s="210"/>
-      <c r="H106" s="223" t="s">
-        <v>118</v>
-      </c>
-      <c r="I106" s="207"/>
+      <c r="E106" s="141"/>
+      <c r="F106" s="141"/>
+      <c r="G106" s="142"/>
+      <c r="H106" s="143" t="s">
+        <v>117</v>
+      </c>
+      <c r="I106" s="144"/>
       <c r="J106" s="106">
         <v>2022</v>
       </c>
     </row>
     <row r="107" spans="2:10" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B107" s="168" t="s">
+      <c r="B107" s="155" t="s">
+        <v>109</v>
+      </c>
+      <c r="C107" s="156"/>
+      <c r="D107" s="140" t="s">
         <v>110</v>
       </c>
-      <c r="C107" s="128"/>
-      <c r="D107" s="208" t="s">
+      <c r="E107" s="141"/>
+      <c r="F107" s="141"/>
+      <c r="G107" s="142"/>
+      <c r="H107" s="155" t="s">
         <v>111</v>
       </c>
-      <c r="E107" s="209"/>
-      <c r="F107" s="209"/>
-      <c r="G107" s="210"/>
-      <c r="H107" s="168" t="s">
-        <v>112</v>
-      </c>
-      <c r="I107" s="128"/>
+      <c r="I107" s="156"/>
       <c r="J107" s="106">
         <v>2021</v>
       </c>
     </row>
     <row r="108" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B108" s="168" t="s">
+      <c r="B108" s="155" t="s">
+        <v>112</v>
+      </c>
+      <c r="C108" s="156"/>
+      <c r="D108" s="140" t="s">
         <v>113</v>
       </c>
-      <c r="C108" s="128"/>
-      <c r="D108" s="208" t="s">
+      <c r="E108" s="141"/>
+      <c r="F108" s="141"/>
+      <c r="G108" s="142"/>
+      <c r="H108" s="155" t="s">
         <v>114</v>
       </c>
-      <c r="E108" s="209"/>
-      <c r="F108" s="209"/>
-      <c r="G108" s="210"/>
-      <c r="H108" s="168" t="s">
-        <v>115</v>
-      </c>
-      <c r="I108" s="128"/>
+      <c r="I108" s="156"/>
       <c r="J108" s="106">
         <v>2019</v>
       </c>
     </row>
     <row r="109" spans="2:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B109" s="168" t="s">
+      <c r="B109" s="155" t="s">
+        <v>115</v>
+      </c>
+      <c r="C109" s="156"/>
+      <c r="D109" s="140" t="s">
         <v>116</v>
       </c>
-      <c r="C109" s="128"/>
-      <c r="D109" s="208" t="s">
+      <c r="E109" s="141"/>
+      <c r="F109" s="141"/>
+      <c r="G109" s="142"/>
+      <c r="H109" s="155" t="s">
         <v>117</v>
       </c>
-      <c r="E109" s="209"/>
-      <c r="F109" s="209"/>
-      <c r="G109" s="210"/>
-      <c r="H109" s="168" t="s">
-        <v>118</v>
-      </c>
-      <c r="I109" s="128"/>
+      <c r="I109" s="156"/>
       <c r="J109" s="106">
         <v>2016</v>
       </c>
     </row>
     <row r="110" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B110" s="168" t="s">
+      <c r="B110" s="155" t="s">
+        <v>118</v>
+      </c>
+      <c r="C110" s="156"/>
+      <c r="D110" s="140" t="s">
         <v>119</v>
       </c>
-      <c r="C110" s="128"/>
-      <c r="D110" s="208" t="s">
+      <c r="E110" s="141"/>
+      <c r="F110" s="141"/>
+      <c r="G110" s="142"/>
+      <c r="H110" s="155" t="s">
         <v>120</v>
       </c>
-      <c r="E110" s="209"/>
-      <c r="F110" s="209"/>
-      <c r="G110" s="210"/>
-      <c r="H110" s="168" t="s">
-        <v>121</v>
-      </c>
-      <c r="I110" s="128"/>
+      <c r="I110" s="156"/>
       <c r="J110" s="106">
         <v>2006</v>
       </c>
     </row>
     <row r="111" spans="2:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B111" s="168" t="s">
+      <c r="B111" s="155" t="s">
+        <v>121</v>
+      </c>
+      <c r="C111" s="156"/>
+      <c r="D111" s="140" t="s">
         <v>122</v>
       </c>
-      <c r="C111" s="128"/>
-      <c r="D111" s="208" t="s">
-        <v>123</v>
-      </c>
-      <c r="E111" s="209"/>
-      <c r="F111" s="209"/>
-      <c r="G111" s="210"/>
-      <c r="H111" s="168" t="s">
-        <v>118</v>
-      </c>
-      <c r="I111" s="128"/>
+      <c r="E111" s="141"/>
+      <c r="F111" s="141"/>
+      <c r="G111" s="142"/>
+      <c r="H111" s="155" t="s">
+        <v>117</v>
+      </c>
+      <c r="I111" s="156"/>
       <c r="J111" s="106">
         <v>2001</v>
       </c>
     </row>
     <row r="112" spans="2:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B112" s="168" t="s">
+      <c r="B112" s="155" t="s">
+        <v>123</v>
+      </c>
+      <c r="C112" s="156"/>
+      <c r="D112" s="140" t="s">
         <v>124</v>
       </c>
-      <c r="C112" s="128"/>
-      <c r="D112" s="208" t="s">
-        <v>125</v>
-      </c>
-      <c r="E112" s="209"/>
-      <c r="F112" s="209"/>
-      <c r="G112" s="210"/>
-      <c r="H112" s="168" t="s">
-        <v>121</v>
-      </c>
-      <c r="I112" s="128"/>
+      <c r="E112" s="141"/>
+      <c r="F112" s="141"/>
+      <c r="G112" s="142"/>
+      <c r="H112" s="155" t="s">
+        <v>120</v>
+      </c>
+      <c r="I112" s="156"/>
       <c r="J112" s="106">
         <v>2010</v>
       </c>
     </row>
     <row r="113" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B113" s="168" t="s">
+      <c r="B113" s="155" t="s">
+        <v>125</v>
+      </c>
+      <c r="C113" s="156"/>
+      <c r="D113" s="140" t="s">
         <v>126</v>
       </c>
-      <c r="C113" s="128"/>
-      <c r="D113" s="208" t="s">
+      <c r="E113" s="141"/>
+      <c r="F113" s="141"/>
+      <c r="G113" s="142"/>
+      <c r="H113" s="155" t="s">
         <v>127</v>
       </c>
-      <c r="E113" s="209"/>
-      <c r="F113" s="209"/>
-      <c r="G113" s="210"/>
-      <c r="H113" s="168" t="s">
-        <v>128</v>
-      </c>
-      <c r="I113" s="128"/>
+      <c r="I113" s="156"/>
       <c r="J113" s="106">
         <v>1993</v>
       </c>
     </row>
     <row r="114" spans="2:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B114" s="107" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="115" spans="2:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B115" s="233" t="s">
+      <c r="B115" s="137" t="s">
+        <v>154</v>
+      </c>
+      <c r="C115" s="137"/>
+      <c r="D115" s="138" t="s">
         <v>155</v>
       </c>
-      <c r="C115" s="233"/>
-      <c r="D115" s="232" t="s">
-        <v>156</v>
-      </c>
-      <c r="E115" s="231"/>
-      <c r="F115" s="231"/>
-      <c r="G115" s="231"/>
-      <c r="H115" s="231"/>
+      <c r="E115" s="139"/>
+      <c r="F115" s="139"/>
+      <c r="G115" s="139"/>
+      <c r="H115" s="139"/>
     </row>
     <row r="116" spans="2:10" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="117" spans="2:10" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4772,96 +4778,6 @@
     <row r="1006" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="110">
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="D115:H115"/>
-    <mergeCell ref="D110:G110"/>
-    <mergeCell ref="D111:G111"/>
-    <mergeCell ref="D112:G112"/>
-    <mergeCell ref="D113:G113"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="D105:G105"/>
-    <mergeCell ref="D106:G106"/>
-    <mergeCell ref="D107:G107"/>
-    <mergeCell ref="G91:J91"/>
-    <mergeCell ref="G93:J93"/>
-    <mergeCell ref="G94:J94"/>
-    <mergeCell ref="G95:J95"/>
-    <mergeCell ref="G96:J96"/>
-    <mergeCell ref="G85:J85"/>
-    <mergeCell ref="G86:J86"/>
-    <mergeCell ref="G87:J87"/>
-    <mergeCell ref="G89:J89"/>
-    <mergeCell ref="G90:J90"/>
-    <mergeCell ref="H113:I113"/>
-    <mergeCell ref="B84:J84"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="C75:E77"/>
-    <mergeCell ref="B78:J78"/>
-    <mergeCell ref="C79:E83"/>
-    <mergeCell ref="C85:E87"/>
-    <mergeCell ref="G75:J75"/>
-    <mergeCell ref="G76:J76"/>
-    <mergeCell ref="G77:J77"/>
-    <mergeCell ref="G79:J79"/>
-    <mergeCell ref="G80:J80"/>
-    <mergeCell ref="G81:J81"/>
-    <mergeCell ref="G82:J82"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="H111:I111"/>
-    <mergeCell ref="H112:I112"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="H110:I110"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="D108:G108"/>
-    <mergeCell ref="D109:G109"/>
-    <mergeCell ref="B79:B83"/>
-    <mergeCell ref="B85:B87"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B93:B96"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B88:J88"/>
-    <mergeCell ref="C89:E91"/>
-    <mergeCell ref="C93:E96"/>
-    <mergeCell ref="B98:B101"/>
-    <mergeCell ref="C98:E101"/>
-    <mergeCell ref="G83:J83"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="G98:J98"/>
-    <mergeCell ref="G99:J99"/>
-    <mergeCell ref="G100:J100"/>
-    <mergeCell ref="G101:J101"/>
-    <mergeCell ref="B63:J63"/>
-    <mergeCell ref="B65:J65"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="H70:J70"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="C71:E73"/>
-    <mergeCell ref="G71:J71"/>
-    <mergeCell ref="G72:J72"/>
-    <mergeCell ref="G73:J73"/>
-    <mergeCell ref="B56:J56"/>
-    <mergeCell ref="B59:J59"/>
-    <mergeCell ref="B60:J60"/>
-    <mergeCell ref="B61:J61"/>
-    <mergeCell ref="B62:J62"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="D53:H53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B48:B53"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="D51:H51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="D52:H52"/>
-    <mergeCell ref="I52:J52"/>
     <mergeCell ref="H22:I22"/>
     <mergeCell ref="B25:J25"/>
     <mergeCell ref="B1:J1"/>
@@ -4882,6 +4798,96 @@
     <mergeCell ref="E14:J14"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="I21:J21"/>
+    <mergeCell ref="B56:J56"/>
+    <mergeCell ref="B59:J59"/>
+    <mergeCell ref="B60:J60"/>
+    <mergeCell ref="B61:J61"/>
+    <mergeCell ref="B62:J62"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="D53:H53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B48:B53"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="D51:H51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="D52:H52"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="G98:J98"/>
+    <mergeCell ref="G99:J99"/>
+    <mergeCell ref="G100:J100"/>
+    <mergeCell ref="G101:J101"/>
+    <mergeCell ref="B63:J63"/>
+    <mergeCell ref="B65:J65"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="H70:J70"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="C71:E73"/>
+    <mergeCell ref="G71:J71"/>
+    <mergeCell ref="G72:J72"/>
+    <mergeCell ref="G73:J73"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B93:B96"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B88:J88"/>
+    <mergeCell ref="C89:E91"/>
+    <mergeCell ref="C93:E96"/>
+    <mergeCell ref="B98:B101"/>
+    <mergeCell ref="C98:E101"/>
+    <mergeCell ref="G83:J83"/>
+    <mergeCell ref="B84:J84"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="C75:E77"/>
+    <mergeCell ref="B78:J78"/>
+    <mergeCell ref="C79:E83"/>
+    <mergeCell ref="C85:E87"/>
+    <mergeCell ref="G75:J75"/>
+    <mergeCell ref="G76:J76"/>
+    <mergeCell ref="G77:J77"/>
+    <mergeCell ref="G79:J79"/>
+    <mergeCell ref="G80:J80"/>
+    <mergeCell ref="G81:J81"/>
+    <mergeCell ref="G82:J82"/>
+    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="G91:J91"/>
+    <mergeCell ref="G93:J93"/>
+    <mergeCell ref="G94:J94"/>
+    <mergeCell ref="G95:J95"/>
+    <mergeCell ref="G96:J96"/>
+    <mergeCell ref="G85:J85"/>
+    <mergeCell ref="G86:J86"/>
+    <mergeCell ref="G87:J87"/>
+    <mergeCell ref="G89:J89"/>
+    <mergeCell ref="G90:J90"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="D115:H115"/>
+    <mergeCell ref="D110:G110"/>
+    <mergeCell ref="D111:G111"/>
+    <mergeCell ref="D112:G112"/>
+    <mergeCell ref="D113:G113"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="D105:G105"/>
+    <mergeCell ref="D106:G106"/>
+    <mergeCell ref="D107:G107"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="D108:G108"/>
+    <mergeCell ref="D109:G109"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B110:C110"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="D34:D37 I34:I37 D39 I39 D41:D46 I41:I46" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -4917,28 +4923,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="137" t="s">
+      <c r="B1" s="211" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="133"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="163"/>
     </row>
     <row r="2" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="139" t="s">
+      <c r="B2" s="212" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="141"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="166"/>
     </row>
     <row r="3" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2"/>
@@ -4951,16 +4957,16 @@
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="131" t="s">
+      <c r="B4" s="191" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="127"/>
-      <c r="D4" s="127"/>
-      <c r="E4" s="127"/>
-      <c r="F4" s="127"/>
-      <c r="G4" s="127"/>
-      <c r="H4" s="127"/>
-      <c r="I4" s="128"/>
+      <c r="C4" s="158"/>
+      <c r="D4" s="158"/>
+      <c r="E4" s="158"/>
+      <c r="F4" s="158"/>
+      <c r="G4" s="158"/>
+      <c r="H4" s="158"/>
+      <c r="I4" s="156"/>
     </row>
     <row r="5" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="6" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4998,11 +5004,11 @@
       <c r="I8" s="11"/>
     </row>
     <row r="9" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="142" t="s">
+      <c r="B9" s="213" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="127"/>
-      <c r="D9" s="128"/>
+      <c r="C9" s="158"/>
+      <c r="D9" s="156"/>
       <c r="E9" s="14"/>
       <c r="F9" s="9"/>
       <c r="G9" s="10"/>
@@ -5010,72 +5016,72 @@
       <c r="I9" s="11"/>
     </row>
     <row r="10" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="142" t="s">
+      <c r="B10" s="213" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="127"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="143" t="s">
+      <c r="C10" s="158"/>
+      <c r="D10" s="156"/>
+      <c r="E10" s="214" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="127"/>
-      <c r="G10" s="127"/>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
+      <c r="F10" s="158"/>
+      <c r="G10" s="158"/>
+      <c r="H10" s="158"/>
+      <c r="I10" s="156"/>
     </row>
     <row r="11" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="142" t="s">
+      <c r="B11" s="213" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="127"/>
-      <c r="D11" s="128"/>
-      <c r="E11" s="126" t="s">
+      <c r="C11" s="158"/>
+      <c r="D11" s="156"/>
+      <c r="E11" s="215" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="127"/>
-      <c r="G11" s="127"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
+      <c r="F11" s="158"/>
+      <c r="G11" s="158"/>
+      <c r="H11" s="158"/>
+      <c r="I11" s="156"/>
     </row>
     <row r="12" spans="2:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="144" t="s">
+      <c r="B12" s="216" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="127"/>
-      <c r="D12" s="128"/>
-      <c r="E12" s="126" t="s">
-        <v>130</v>
-      </c>
-      <c r="F12" s="127"/>
-      <c r="G12" s="127"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
+      <c r="C12" s="158"/>
+      <c r="D12" s="156"/>
+      <c r="E12" s="215" t="s">
+        <v>129</v>
+      </c>
+      <c r="F12" s="158"/>
+      <c r="G12" s="158"/>
+      <c r="H12" s="158"/>
+      <c r="I12" s="156"/>
     </row>
     <row r="13" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="129" t="s">
+      <c r="B13" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="127"/>
-      <c r="D13" s="128"/>
-      <c r="E13" s="129" t="s">
+      <c r="C13" s="158"/>
+      <c r="D13" s="156"/>
+      <c r="E13" s="217" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="127"/>
-      <c r="G13" s="127"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
+      <c r="F13" s="158"/>
+      <c r="G13" s="158"/>
+      <c r="H13" s="158"/>
+      <c r="I13" s="156"/>
     </row>
     <row r="14" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="129" t="s">
+      <c r="B14" s="217" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="127"/>
-      <c r="D14" s="128"/>
-      <c r="E14" s="130"/>
-      <c r="F14" s="127"/>
-      <c r="G14" s="127"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
+      <c r="C14" s="158"/>
+      <c r="D14" s="156"/>
+      <c r="E14" s="220"/>
+      <c r="F14" s="158"/>
+      <c r="G14" s="158"/>
+      <c r="H14" s="158"/>
+      <c r="I14" s="156"/>
     </row>
     <row r="15" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="17"/>
@@ -5131,19 +5137,19 @@
       <c r="I19" s="28"/>
     </row>
     <row r="20" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="145" t="s">
+      <c r="B20" s="218" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="128"/>
+      <c r="C20" s="156"/>
       <c r="D20" s="29"/>
       <c r="E20" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F20" s="29"/>
-      <c r="G20" s="131" t="s">
+      <c r="G20" s="191" t="s">
         <v>20</v>
       </c>
-      <c r="H20" s="128"/>
+      <c r="H20" s="156"/>
       <c r="I20" s="31">
         <f>+F20+D20</f>
         <v>0</v>
@@ -5158,28 +5164,28 @@
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
       <c r="G21" s="26"/>
-      <c r="H21" s="132"/>
-      <c r="I21" s="133"/>
+      <c r="H21" s="221"/>
+      <c r="I21" s="163"/>
     </row>
     <row r="22" spans="2:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="146" t="s">
+      <c r="B22" s="219" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="128"/>
+      <c r="C22" s="156"/>
       <c r="D22" s="32">
         <v>16</v>
       </c>
       <c r="E22" s="33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F22" s="32">
         <f>+D22*I20</f>
         <v>0</v>
       </c>
-      <c r="G22" s="131" t="s">
+      <c r="G22" s="191" t="s">
         <v>24</v>
       </c>
-      <c r="H22" s="128"/>
+      <c r="H22" s="156"/>
       <c r="I22" s="31">
         <f>+ROUNDUP(F22/48,0)</f>
         <v>0</v>
@@ -5206,16 +5212,16 @@
       <c r="I24" s="44"/>
     </row>
     <row r="25" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="134" t="s">
+      <c r="B25" s="208" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="135"/>
-      <c r="D25" s="135"/>
-      <c r="E25" s="135"/>
-      <c r="F25" s="135"/>
-      <c r="G25" s="135"/>
-      <c r="H25" s="135"/>
-      <c r="I25" s="136"/>
+      <c r="C25" s="209"/>
+      <c r="D25" s="209"/>
+      <c r="E25" s="209"/>
+      <c r="F25" s="209"/>
+      <c r="G25" s="209"/>
+      <c r="H25" s="209"/>
+      <c r="I25" s="210"/>
     </row>
     <row r="26" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="45"/>
@@ -5229,7 +5235,7 @@
     </row>
     <row r="27" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="51" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C27" s="52"/>
       <c r="D27" s="52"/>
@@ -5241,7 +5247,7 @@
     </row>
     <row r="28" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="51" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C28" s="52"/>
       <c r="D28" s="52"/>
@@ -5253,7 +5259,7 @@
     </row>
     <row r="29" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="51" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C29" s="52"/>
       <c r="D29" s="52"/>
@@ -5265,7 +5271,7 @@
     </row>
     <row r="30" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="51" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C30" s="52"/>
       <c r="D30" s="52"/>
@@ -5345,18 +5351,18 @@
       <c r="C38" s="64">
         <v>75</v>
       </c>
-      <c r="D38" s="150" t="s">
+      <c r="D38" s="205" t="s">
         <v>36</v>
       </c>
-      <c r="E38" s="148"/>
+      <c r="E38" s="203"/>
       <c r="F38" s="31">
         <f>+D20*16</f>
         <v>0</v>
       </c>
-      <c r="G38" s="147" t="s">
+      <c r="G38" s="202" t="s">
         <v>37</v>
       </c>
-      <c r="H38" s="148"/>
+      <c r="H38" s="203"/>
       <c r="I38" s="32">
         <f>+(F38*C38)/100</f>
         <v>0</v>
@@ -5434,7 +5440,7 @@
     </row>
     <row r="45" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -5470,15 +5476,15 @@
       <c r="B48" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="C48" s="179" t="s">
-        <v>137</v>
-      </c>
-      <c r="D48" s="127"/>
-      <c r="E48" s="127"/>
-      <c r="F48" s="127"/>
-      <c r="G48" s="127"/>
-      <c r="H48" s="127"/>
-      <c r="I48" s="128"/>
+      <c r="C48" s="225" t="s">
+        <v>136</v>
+      </c>
+      <c r="D48" s="158"/>
+      <c r="E48" s="158"/>
+      <c r="F48" s="158"/>
+      <c r="G48" s="158"/>
+      <c r="H48" s="158"/>
+      <c r="I48" s="156"/>
     </row>
     <row r="49" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="110">
@@ -5513,12 +5519,12 @@
     <row r="51" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="113"/>
       <c r="C51" s="114"/>
-      <c r="D51" s="149"/>
-      <c r="E51" s="127"/>
-      <c r="F51" s="127"/>
-      <c r="G51" s="128"/>
-      <c r="H51" s="149"/>
-      <c r="I51" s="128"/>
+      <c r="D51" s="204"/>
+      <c r="E51" s="158"/>
+      <c r="F51" s="158"/>
+      <c r="G51" s="156"/>
+      <c r="H51" s="204"/>
+      <c r="I51" s="156"/>
     </row>
     <row r="52" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="115"/>
@@ -5536,15 +5542,15 @@
       <c r="B53" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="C53" s="179" t="s">
-        <v>138</v>
-      </c>
-      <c r="D53" s="127"/>
-      <c r="E53" s="127"/>
-      <c r="F53" s="127"/>
-      <c r="G53" s="127"/>
-      <c r="H53" s="127"/>
-      <c r="I53" s="128"/>
+      <c r="C53" s="225" t="s">
+        <v>137</v>
+      </c>
+      <c r="D53" s="158"/>
+      <c r="E53" s="158"/>
+      <c r="F53" s="158"/>
+      <c r="G53" s="158"/>
+      <c r="H53" s="158"/>
+      <c r="I53" s="156"/>
     </row>
     <row r="54" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="110">
@@ -5579,12 +5585,12 @@
     <row r="56" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56" s="113"/>
       <c r="C56" s="114"/>
-      <c r="D56" s="149"/>
-      <c r="E56" s="127"/>
-      <c r="F56" s="127"/>
-      <c r="G56" s="128"/>
-      <c r="H56" s="149"/>
-      <c r="I56" s="128"/>
+      <c r="D56" s="204"/>
+      <c r="E56" s="158"/>
+      <c r="F56" s="158"/>
+      <c r="G56" s="156"/>
+      <c r="H56" s="204"/>
+      <c r="I56" s="156"/>
     </row>
     <row r="57" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B57" s="78"/>
@@ -5609,16 +5615,16 @@
       <c r="I58" s="3"/>
     </row>
     <row r="59" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="155" t="s">
+      <c r="B59" s="199" t="s">
         <v>60</v>
       </c>
-      <c r="C59" s="140"/>
-      <c r="D59" s="140"/>
-      <c r="E59" s="140"/>
-      <c r="F59" s="140"/>
-      <c r="G59" s="140"/>
-      <c r="H59" s="140"/>
-      <c r="I59" s="140"/>
+      <c r="C59" s="165"/>
+      <c r="D59" s="165"/>
+      <c r="E59" s="165"/>
+      <c r="F59" s="165"/>
+      <c r="G59" s="165"/>
+      <c r="H59" s="165"/>
+      <c r="I59" s="165"/>
     </row>
     <row r="60" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B60" s="21"/>
@@ -5643,26 +5649,26 @@
       <c r="I61" s="20"/>
     </row>
     <row r="62" spans="2:9" ht="161.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="180" t="s">
-        <v>139</v>
-      </c>
-      <c r="C62" s="138"/>
-      <c r="D62" s="138"/>
-      <c r="E62" s="138"/>
-      <c r="F62" s="138"/>
-      <c r="G62" s="138"/>
-      <c r="H62" s="138"/>
-      <c r="I62" s="133"/>
+      <c r="B62" s="226" t="s">
+        <v>138</v>
+      </c>
+      <c r="C62" s="162"/>
+      <c r="D62" s="162"/>
+      <c r="E62" s="162"/>
+      <c r="F62" s="162"/>
+      <c r="G62" s="162"/>
+      <c r="H62" s="162"/>
+      <c r="I62" s="163"/>
     </row>
     <row r="63" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="181"/>
-      <c r="C63" s="159"/>
-      <c r="D63" s="159"/>
-      <c r="E63" s="159"/>
-      <c r="F63" s="159"/>
-      <c r="G63" s="159"/>
-      <c r="H63" s="159"/>
-      <c r="I63" s="160"/>
+      <c r="B63" s="227"/>
+      <c r="C63" s="168"/>
+      <c r="D63" s="168"/>
+      <c r="E63" s="168"/>
+      <c r="F63" s="168"/>
+      <c r="G63" s="168"/>
+      <c r="H63" s="168"/>
+      <c r="I63" s="169"/>
     </row>
     <row r="64" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B64" s="86"/>
@@ -5676,7 +5682,7 @@
     </row>
     <row r="65" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B65" s="119" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C65" s="118"/>
       <c r="D65" s="118"/>
@@ -5687,16 +5693,16 @@
       <c r="I65" s="20"/>
     </row>
     <row r="66" spans="2:9" ht="154.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="161" t="s">
-        <v>140</v>
-      </c>
-      <c r="C66" s="127"/>
-      <c r="D66" s="127"/>
-      <c r="E66" s="127"/>
-      <c r="F66" s="127"/>
-      <c r="G66" s="127"/>
-      <c r="H66" s="127"/>
-      <c r="I66" s="128"/>
+      <c r="B66" s="190" t="s">
+        <v>139</v>
+      </c>
+      <c r="C66" s="158"/>
+      <c r="D66" s="158"/>
+      <c r="E66" s="158"/>
+      <c r="F66" s="158"/>
+      <c r="G66" s="158"/>
+      <c r="H66" s="158"/>
+      <c r="I66" s="156"/>
     </row>
     <row r="67" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B67" s="86"/>
@@ -5720,7 +5726,7 @@
     </row>
     <row r="69" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B69" s="87" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C69" s="86"/>
       <c r="D69" s="86"/>
@@ -5741,68 +5747,68 @@
       <c r="I70" s="89"/>
     </row>
     <row r="71" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B71" s="131" t="s">
+      <c r="B71" s="191" t="s">
+        <v>69</v>
+      </c>
+      <c r="C71" s="158"/>
+      <c r="D71" s="158"/>
+      <c r="E71" s="156"/>
+      <c r="F71" s="90"/>
+      <c r="G71" s="192" t="s">
         <v>70</v>
       </c>
-      <c r="C71" s="127"/>
-      <c r="D71" s="127"/>
-      <c r="E71" s="128"/>
-      <c r="F71" s="90"/>
-      <c r="G71" s="162" t="s">
+      <c r="H71" s="158"/>
+      <c r="I71" s="156"/>
+    </row>
+    <row r="72" spans="2:9" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B72" s="232" t="s">
         <v>71</v>
       </c>
-      <c r="H71" s="127"/>
-      <c r="I71" s="128"/>
-    </row>
-    <row r="72" spans="2:9" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B72" s="176" t="s">
-        <v>72</v>
-      </c>
-      <c r="C72" s="164"/>
-      <c r="D72" s="138"/>
-      <c r="E72" s="133"/>
+      <c r="C72" s="161"/>
+      <c r="D72" s="162"/>
+      <c r="E72" s="163"/>
       <c r="F72" s="120" t="s">
-        <v>72</v>
-      </c>
-      <c r="G72" s="182"/>
-      <c r="H72" s="159"/>
-      <c r="I72" s="160"/>
+        <v>71</v>
+      </c>
+      <c r="G72" s="228"/>
+      <c r="H72" s="168"/>
+      <c r="I72" s="169"/>
     </row>
     <row r="73" spans="2:9" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B73" s="152"/>
-      <c r="C73" s="165"/>
-      <c r="D73" s="140"/>
-      <c r="E73" s="141"/>
+      <c r="B73" s="160"/>
+      <c r="C73" s="164"/>
+      <c r="D73" s="165"/>
+      <c r="E73" s="166"/>
       <c r="F73" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="G73" s="167"/>
-      <c r="H73" s="127"/>
-      <c r="I73" s="128"/>
+        <v>74</v>
+      </c>
+      <c r="G73" s="222"/>
+      <c r="H73" s="158"/>
+      <c r="I73" s="156"/>
     </row>
     <row r="74" spans="2:9" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B74" s="152"/>
-      <c r="C74" s="165"/>
-      <c r="D74" s="140"/>
-      <c r="E74" s="141"/>
+      <c r="B74" s="160"/>
+      <c r="C74" s="164"/>
+      <c r="D74" s="165"/>
+      <c r="E74" s="166"/>
       <c r="F74" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="G74" s="167"/>
-      <c r="H74" s="127"/>
-      <c r="I74" s="128"/>
+        <v>76</v>
+      </c>
+      <c r="G74" s="222"/>
+      <c r="H74" s="158"/>
+      <c r="I74" s="156"/>
     </row>
     <row r="75" spans="2:9" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="153"/>
-      <c r="C75" s="166"/>
-      <c r="D75" s="159"/>
-      <c r="E75" s="160"/>
+      <c r="B75" s="171"/>
+      <c r="C75" s="167"/>
+      <c r="D75" s="168"/>
+      <c r="E75" s="169"/>
       <c r="F75" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="G75" s="167"/>
-      <c r="H75" s="127"/>
-      <c r="I75" s="128"/>
+        <v>86</v>
+      </c>
+      <c r="G75" s="222"/>
+      <c r="H75" s="158"/>
+      <c r="I75" s="156"/>
     </row>
     <row r="76" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" s="94"/>
@@ -5815,78 +5821,78 @@
       <c r="I76" s="121"/>
     </row>
     <row r="77" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B77" s="176" t="s">
-        <v>75</v>
-      </c>
-      <c r="C77" s="164"/>
-      <c r="D77" s="138"/>
-      <c r="E77" s="133"/>
+      <c r="B77" s="232" t="s">
+        <v>74</v>
+      </c>
+      <c r="C77" s="161"/>
+      <c r="D77" s="162"/>
+      <c r="E77" s="163"/>
       <c r="F77" s="122" t="s">
-        <v>72</v>
-      </c>
-      <c r="G77" s="169"/>
-      <c r="H77" s="127"/>
-      <c r="I77" s="128"/>
+        <v>71</v>
+      </c>
+      <c r="G77" s="224"/>
+      <c r="H77" s="158"/>
+      <c r="I77" s="156"/>
     </row>
     <row r="78" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B78" s="152"/>
-      <c r="C78" s="165"/>
-      <c r="D78" s="140"/>
-      <c r="E78" s="141"/>
+      <c r="B78" s="160"/>
+      <c r="C78" s="164"/>
+      <c r="D78" s="165"/>
+      <c r="E78" s="166"/>
       <c r="F78" s="122" t="s">
-        <v>75</v>
-      </c>
-      <c r="G78" s="167"/>
-      <c r="H78" s="127"/>
-      <c r="I78" s="128"/>
+        <v>74</v>
+      </c>
+      <c r="G78" s="222"/>
+      <c r="H78" s="158"/>
+      <c r="I78" s="156"/>
     </row>
     <row r="79" spans="2:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B79" s="152"/>
-      <c r="C79" s="165"/>
-      <c r="D79" s="140"/>
-      <c r="E79" s="141"/>
+      <c r="B79" s="160"/>
+      <c r="C79" s="164"/>
+      <c r="D79" s="165"/>
+      <c r="E79" s="166"/>
       <c r="F79" s="122" t="s">
-        <v>77</v>
-      </c>
-      <c r="G79" s="167"/>
-      <c r="H79" s="127"/>
-      <c r="I79" s="128"/>
+        <v>76</v>
+      </c>
+      <c r="G79" s="222"/>
+      <c r="H79" s="158"/>
+      <c r="I79" s="156"/>
     </row>
     <row r="80" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B80" s="152"/>
-      <c r="C80" s="165"/>
-      <c r="D80" s="140"/>
-      <c r="E80" s="141"/>
+      <c r="B80" s="160"/>
+      <c r="C80" s="164"/>
+      <c r="D80" s="165"/>
+      <c r="E80" s="166"/>
       <c r="F80" s="122" t="s">
-        <v>87</v>
-      </c>
-      <c r="G80" s="167"/>
-      <c r="H80" s="127"/>
-      <c r="I80" s="128"/>
+        <v>86</v>
+      </c>
+      <c r="G80" s="222"/>
+      <c r="H80" s="158"/>
+      <c r="I80" s="156"/>
     </row>
     <row r="81" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="152"/>
-      <c r="C81" s="165"/>
-      <c r="D81" s="140"/>
-      <c r="E81" s="141"/>
+      <c r="B81" s="160"/>
+      <c r="C81" s="164"/>
+      <c r="D81" s="165"/>
+      <c r="E81" s="166"/>
       <c r="F81" s="122" t="s">
-        <v>94</v>
-      </c>
-      <c r="G81" s="167"/>
-      <c r="H81" s="127"/>
-      <c r="I81" s="128"/>
+        <v>93</v>
+      </c>
+      <c r="G81" s="222"/>
+      <c r="H81" s="158"/>
+      <c r="I81" s="156"/>
     </row>
     <row r="82" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B82" s="153"/>
-      <c r="C82" s="166"/>
-      <c r="D82" s="159"/>
-      <c r="E82" s="160"/>
+      <c r="B82" s="171"/>
+      <c r="C82" s="167"/>
+      <c r="D82" s="168"/>
+      <c r="E82" s="169"/>
       <c r="F82" s="122" t="s">
-        <v>99</v>
-      </c>
-      <c r="G82" s="167"/>
-      <c r="H82" s="127"/>
-      <c r="I82" s="128"/>
+        <v>98</v>
+      </c>
+      <c r="G82" s="222"/>
+      <c r="H82" s="158"/>
+      <c r="I82" s="156"/>
     </row>
     <row r="83" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B83" s="94"/>
@@ -5899,54 +5905,54 @@
       <c r="I83" s="121"/>
     </row>
     <row r="84" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B84" s="176" t="s">
-        <v>77</v>
-      </c>
-      <c r="C84" s="164"/>
-      <c r="D84" s="138"/>
-      <c r="E84" s="138"/>
+      <c r="B84" s="232" t="s">
+        <v>76</v>
+      </c>
+      <c r="C84" s="161"/>
+      <c r="D84" s="162"/>
+      <c r="E84" s="162"/>
       <c r="F84" s="122" t="s">
-        <v>72</v>
-      </c>
-      <c r="G84" s="172"/>
-      <c r="H84" s="127"/>
-      <c r="I84" s="128"/>
+        <v>71</v>
+      </c>
+      <c r="G84" s="230"/>
+      <c r="H84" s="158"/>
+      <c r="I84" s="156"/>
     </row>
     <row r="85" spans="2:9" ht="104.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B85" s="152"/>
-      <c r="C85" s="165"/>
-      <c r="D85" s="140"/>
-      <c r="E85" s="140"/>
+      <c r="B85" s="160"/>
+      <c r="C85" s="164"/>
+      <c r="D85" s="165"/>
+      <c r="E85" s="165"/>
       <c r="F85" s="122" t="s">
-        <v>75</v>
-      </c>
-      <c r="G85" s="173"/>
-      <c r="H85" s="127"/>
-      <c r="I85" s="128"/>
+        <v>74</v>
+      </c>
+      <c r="G85" s="223"/>
+      <c r="H85" s="158"/>
+      <c r="I85" s="156"/>
     </row>
     <row r="86" spans="2:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B86" s="152"/>
-      <c r="C86" s="165"/>
-      <c r="D86" s="140"/>
-      <c r="E86" s="140"/>
+      <c r="B86" s="160"/>
+      <c r="C86" s="164"/>
+      <c r="D86" s="165"/>
+      <c r="E86" s="165"/>
       <c r="F86" s="122" t="s">
-        <v>77</v>
-      </c>
-      <c r="G86" s="173"/>
-      <c r="H86" s="127"/>
-      <c r="I86" s="128"/>
+        <v>76</v>
+      </c>
+      <c r="G86" s="223"/>
+      <c r="H86" s="158"/>
+      <c r="I86" s="156"/>
     </row>
     <row r="87" spans="2:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B87" s="153"/>
-      <c r="C87" s="166"/>
-      <c r="D87" s="159"/>
-      <c r="E87" s="159"/>
+      <c r="B87" s="171"/>
+      <c r="C87" s="167"/>
+      <c r="D87" s="168"/>
+      <c r="E87" s="168"/>
       <c r="F87" s="122" t="s">
-        <v>87</v>
-      </c>
-      <c r="G87" s="173"/>
-      <c r="H87" s="127"/>
-      <c r="I87" s="128"/>
+        <v>86</v>
+      </c>
+      <c r="G87" s="223"/>
+      <c r="H87" s="158"/>
+      <c r="I87" s="156"/>
     </row>
     <row r="88" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B88" s="94"/>
@@ -5959,66 +5965,66 @@
       <c r="I88" s="121"/>
     </row>
     <row r="89" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B89" s="171" t="s">
-        <v>87</v>
-      </c>
-      <c r="C89" s="175"/>
-      <c r="D89" s="138"/>
-      <c r="E89" s="138"/>
+      <c r="B89" s="173" t="s">
+        <v>86</v>
+      </c>
+      <c r="C89" s="170"/>
+      <c r="D89" s="162"/>
+      <c r="E89" s="162"/>
       <c r="F89" s="122" t="s">
-        <v>72</v>
-      </c>
-      <c r="G89" s="169"/>
-      <c r="H89" s="127"/>
-      <c r="I89" s="128"/>
+        <v>71</v>
+      </c>
+      <c r="G89" s="224"/>
+      <c r="H89" s="158"/>
+      <c r="I89" s="156"/>
     </row>
     <row r="90" spans="2:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B90" s="152"/>
-      <c r="C90" s="140"/>
-      <c r="D90" s="140"/>
-      <c r="E90" s="140"/>
+      <c r="B90" s="160"/>
+      <c r="C90" s="165"/>
+      <c r="D90" s="165"/>
+      <c r="E90" s="165"/>
       <c r="F90" s="122" t="s">
-        <v>75</v>
-      </c>
-      <c r="G90" s="167"/>
-      <c r="H90" s="127"/>
-      <c r="I90" s="128"/>
+        <v>74</v>
+      </c>
+      <c r="G90" s="222"/>
+      <c r="H90" s="158"/>
+      <c r="I90" s="156"/>
     </row>
     <row r="91" spans="2:9" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B91" s="152"/>
-      <c r="C91" s="140"/>
-      <c r="D91" s="140"/>
-      <c r="E91" s="140"/>
+      <c r="B91" s="160"/>
+      <c r="C91" s="165"/>
+      <c r="D91" s="165"/>
+      <c r="E91" s="165"/>
       <c r="F91" s="122" t="s">
-        <v>77</v>
-      </c>
-      <c r="G91" s="167"/>
-      <c r="H91" s="127"/>
-      <c r="I91" s="128"/>
+        <v>76</v>
+      </c>
+      <c r="G91" s="222"/>
+      <c r="H91" s="158"/>
+      <c r="I91" s="156"/>
     </row>
     <row r="92" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B92" s="152"/>
-      <c r="C92" s="140"/>
-      <c r="D92" s="140"/>
-      <c r="E92" s="140"/>
+      <c r="B92" s="160"/>
+      <c r="C92" s="165"/>
+      <c r="D92" s="165"/>
+      <c r="E92" s="165"/>
       <c r="F92" s="122" t="s">
-        <v>87</v>
-      </c>
-      <c r="G92" s="167"/>
-      <c r="H92" s="127"/>
-      <c r="I92" s="128"/>
+        <v>86</v>
+      </c>
+      <c r="G92" s="222"/>
+      <c r="H92" s="158"/>
+      <c r="I92" s="156"/>
     </row>
     <row r="93" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B93" s="153"/>
-      <c r="C93" s="159"/>
-      <c r="D93" s="159"/>
-      <c r="E93" s="159"/>
+      <c r="B93" s="171"/>
+      <c r="C93" s="168"/>
+      <c r="D93" s="168"/>
+      <c r="E93" s="168"/>
       <c r="F93" s="122" t="s">
-        <v>94</v>
-      </c>
-      <c r="G93" s="169"/>
-      <c r="H93" s="127"/>
-      <c r="I93" s="128"/>
+        <v>93</v>
+      </c>
+      <c r="G93" s="224"/>
+      <c r="H93" s="158"/>
+      <c r="I93" s="156"/>
     </row>
     <row r="94" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B94" s="94"/>
@@ -6031,90 +6037,90 @@
       <c r="I94" s="121"/>
     </row>
     <row r="95" spans="2:9" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B95" s="171" t="s">
-        <v>94</v>
-      </c>
-      <c r="C95" s="164"/>
-      <c r="D95" s="138"/>
-      <c r="E95" s="133"/>
+      <c r="B95" s="173" t="s">
+        <v>93</v>
+      </c>
+      <c r="C95" s="161"/>
+      <c r="D95" s="162"/>
+      <c r="E95" s="163"/>
       <c r="F95" s="122" t="s">
-        <v>72</v>
-      </c>
-      <c r="G95" s="169"/>
-      <c r="H95" s="127"/>
-      <c r="I95" s="128"/>
+        <v>71</v>
+      </c>
+      <c r="G95" s="224"/>
+      <c r="H95" s="158"/>
+      <c r="I95" s="156"/>
     </row>
     <row r="96" spans="2:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B96" s="152"/>
-      <c r="C96" s="165"/>
-      <c r="D96" s="140"/>
-      <c r="E96" s="141"/>
+      <c r="B96" s="160"/>
+      <c r="C96" s="164"/>
+      <c r="D96" s="165"/>
+      <c r="E96" s="166"/>
       <c r="F96" s="122" t="s">
-        <v>75</v>
-      </c>
-      <c r="G96" s="167"/>
-      <c r="H96" s="127"/>
-      <c r="I96" s="128"/>
+        <v>74</v>
+      </c>
+      <c r="G96" s="222"/>
+      <c r="H96" s="158"/>
+      <c r="I96" s="156"/>
     </row>
     <row r="97" spans="2:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B97" s="152"/>
-      <c r="C97" s="165"/>
-      <c r="D97" s="140"/>
-      <c r="E97" s="141"/>
+      <c r="B97" s="160"/>
+      <c r="C97" s="164"/>
+      <c r="D97" s="165"/>
+      <c r="E97" s="166"/>
       <c r="F97" s="122" t="s">
-        <v>77</v>
-      </c>
-      <c r="G97" s="167"/>
-      <c r="H97" s="127"/>
-      <c r="I97" s="128"/>
+        <v>76</v>
+      </c>
+      <c r="G97" s="222"/>
+      <c r="H97" s="158"/>
+      <c r="I97" s="156"/>
     </row>
     <row r="98" spans="2:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B98" s="152"/>
-      <c r="C98" s="165"/>
-      <c r="D98" s="140"/>
-      <c r="E98" s="141"/>
+      <c r="B98" s="160"/>
+      <c r="C98" s="164"/>
+      <c r="D98" s="165"/>
+      <c r="E98" s="166"/>
       <c r="F98" s="122" t="s">
-        <v>87</v>
-      </c>
-      <c r="G98" s="167"/>
-      <c r="H98" s="127"/>
-      <c r="I98" s="128"/>
+        <v>86</v>
+      </c>
+      <c r="G98" s="222"/>
+      <c r="H98" s="158"/>
+      <c r="I98" s="156"/>
     </row>
     <row r="99" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B99" s="152"/>
-      <c r="C99" s="165"/>
-      <c r="D99" s="140"/>
-      <c r="E99" s="141"/>
+      <c r="B99" s="160"/>
+      <c r="C99" s="164"/>
+      <c r="D99" s="165"/>
+      <c r="E99" s="166"/>
       <c r="F99" s="122" t="s">
-        <v>94</v>
-      </c>
-      <c r="G99" s="167"/>
-      <c r="H99" s="127"/>
-      <c r="I99" s="128"/>
+        <v>93</v>
+      </c>
+      <c r="G99" s="222"/>
+      <c r="H99" s="158"/>
+      <c r="I99" s="156"/>
     </row>
     <row r="100" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B100" s="152"/>
-      <c r="C100" s="165"/>
-      <c r="D100" s="140"/>
-      <c r="E100" s="141"/>
+      <c r="B100" s="160"/>
+      <c r="C100" s="164"/>
+      <c r="D100" s="165"/>
+      <c r="E100" s="166"/>
       <c r="F100" s="122" t="s">
-        <v>99</v>
-      </c>
-      <c r="G100" s="167"/>
-      <c r="H100" s="127"/>
-      <c r="I100" s="128"/>
+        <v>98</v>
+      </c>
+      <c r="G100" s="222"/>
+      <c r="H100" s="158"/>
+      <c r="I100" s="156"/>
     </row>
     <row r="101" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B101" s="153"/>
-      <c r="C101" s="166"/>
-      <c r="D101" s="159"/>
-      <c r="E101" s="160"/>
+      <c r="B101" s="171"/>
+      <c r="C101" s="167"/>
+      <c r="D101" s="168"/>
+      <c r="E101" s="169"/>
       <c r="F101" s="122" t="s">
-        <v>141</v>
-      </c>
-      <c r="G101" s="167"/>
-      <c r="H101" s="127"/>
-      <c r="I101" s="128"/>
+        <v>140</v>
+      </c>
+      <c r="G101" s="222"/>
+      <c r="H101" s="158"/>
+      <c r="I101" s="156"/>
     </row>
     <row r="102" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B102" s="94"/>
@@ -6127,66 +6133,66 @@
       <c r="I102" s="121"/>
     </row>
     <row r="103" spans="2:9" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B103" s="171" t="s">
-        <v>99</v>
-      </c>
-      <c r="C103" s="164"/>
-      <c r="D103" s="138"/>
-      <c r="E103" s="133"/>
+      <c r="B103" s="173" t="s">
+        <v>98</v>
+      </c>
+      <c r="C103" s="161"/>
+      <c r="D103" s="162"/>
+      <c r="E103" s="163"/>
       <c r="F103" s="122" t="s">
-        <v>72</v>
-      </c>
-      <c r="G103" s="172"/>
-      <c r="H103" s="127"/>
-      <c r="I103" s="128"/>
+        <v>71</v>
+      </c>
+      <c r="G103" s="230"/>
+      <c r="H103" s="158"/>
+      <c r="I103" s="156"/>
     </row>
     <row r="104" spans="2:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B104" s="152"/>
-      <c r="C104" s="165"/>
-      <c r="D104" s="140"/>
-      <c r="E104" s="141"/>
+      <c r="B104" s="160"/>
+      <c r="C104" s="164"/>
+      <c r="D104" s="165"/>
+      <c r="E104" s="166"/>
       <c r="F104" s="122" t="s">
-        <v>75</v>
-      </c>
-      <c r="G104" s="173"/>
-      <c r="H104" s="127"/>
-      <c r="I104" s="128"/>
+        <v>74</v>
+      </c>
+      <c r="G104" s="223"/>
+      <c r="H104" s="158"/>
+      <c r="I104" s="156"/>
     </row>
     <row r="105" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B105" s="152"/>
-      <c r="C105" s="165"/>
-      <c r="D105" s="140"/>
-      <c r="E105" s="141"/>
+      <c r="B105" s="160"/>
+      <c r="C105" s="164"/>
+      <c r="D105" s="165"/>
+      <c r="E105" s="166"/>
       <c r="F105" s="122" t="s">
-        <v>77</v>
-      </c>
-      <c r="G105" s="173"/>
-      <c r="H105" s="127"/>
-      <c r="I105" s="128"/>
+        <v>76</v>
+      </c>
+      <c r="G105" s="223"/>
+      <c r="H105" s="158"/>
+      <c r="I105" s="156"/>
     </row>
     <row r="106" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B106" s="152"/>
-      <c r="C106" s="165"/>
-      <c r="D106" s="140"/>
-      <c r="E106" s="141"/>
+      <c r="B106" s="160"/>
+      <c r="C106" s="164"/>
+      <c r="D106" s="165"/>
+      <c r="E106" s="166"/>
       <c r="F106" s="122" t="s">
-        <v>87</v>
-      </c>
-      <c r="G106" s="173"/>
-      <c r="H106" s="127"/>
-      <c r="I106" s="128"/>
+        <v>86</v>
+      </c>
+      <c r="G106" s="223"/>
+      <c r="H106" s="158"/>
+      <c r="I106" s="156"/>
     </row>
     <row r="107" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B107" s="153"/>
-      <c r="C107" s="166"/>
-      <c r="D107" s="159"/>
-      <c r="E107" s="160"/>
+      <c r="B107" s="171"/>
+      <c r="C107" s="167"/>
+      <c r="D107" s="168"/>
+      <c r="E107" s="169"/>
       <c r="F107" s="122" t="s">
-        <v>94</v>
-      </c>
-      <c r="G107" s="172"/>
-      <c r="H107" s="127"/>
-      <c r="I107" s="128"/>
+        <v>93</v>
+      </c>
+      <c r="G107" s="230"/>
+      <c r="H107" s="158"/>
+      <c r="I107" s="156"/>
     </row>
     <row r="108" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B108" s="1"/>
@@ -6209,42 +6215,42 @@
       <c r="I109" s="121"/>
     </row>
     <row r="110" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B110" s="171" t="s">
-        <v>141</v>
-      </c>
-      <c r="C110" s="164"/>
-      <c r="D110" s="138"/>
-      <c r="E110" s="133"/>
+      <c r="B110" s="173" t="s">
+        <v>140</v>
+      </c>
+      <c r="C110" s="161"/>
+      <c r="D110" s="162"/>
+      <c r="E110" s="163"/>
       <c r="F110" s="122" t="s">
-        <v>72</v>
-      </c>
-      <c r="G110" s="169"/>
-      <c r="H110" s="127"/>
-      <c r="I110" s="128"/>
+        <v>71</v>
+      </c>
+      <c r="G110" s="224"/>
+      <c r="H110" s="158"/>
+      <c r="I110" s="156"/>
     </row>
     <row r="111" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B111" s="152"/>
-      <c r="C111" s="165"/>
-      <c r="D111" s="140"/>
-      <c r="E111" s="141"/>
+      <c r="B111" s="160"/>
+      <c r="C111" s="164"/>
+      <c r="D111" s="165"/>
+      <c r="E111" s="166"/>
       <c r="F111" s="122" t="s">
-        <v>75</v>
-      </c>
-      <c r="G111" s="167"/>
-      <c r="H111" s="127"/>
-      <c r="I111" s="128"/>
+        <v>74</v>
+      </c>
+      <c r="G111" s="222"/>
+      <c r="H111" s="158"/>
+      <c r="I111" s="156"/>
     </row>
     <row r="112" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B112" s="153"/>
-      <c r="C112" s="166"/>
-      <c r="D112" s="159"/>
-      <c r="E112" s="160"/>
+      <c r="B112" s="171"/>
+      <c r="C112" s="167"/>
+      <c r="D112" s="168"/>
+      <c r="E112" s="169"/>
       <c r="F112" s="122" t="s">
-        <v>77</v>
-      </c>
-      <c r="G112" s="167"/>
-      <c r="H112" s="127"/>
-      <c r="I112" s="128"/>
+        <v>76</v>
+      </c>
+      <c r="G112" s="222"/>
+      <c r="H112" s="158"/>
+      <c r="I112" s="156"/>
     </row>
     <row r="113" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B113" s="94"/>
@@ -6257,30 +6263,30 @@
       <c r="I113" s="121"/>
     </row>
     <row r="114" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B114" s="171" t="s">
-        <v>142</v>
-      </c>
-      <c r="C114" s="164"/>
-      <c r="D114" s="138"/>
-      <c r="E114" s="133"/>
+      <c r="B114" s="173" t="s">
+        <v>141</v>
+      </c>
+      <c r="C114" s="161"/>
+      <c r="D114" s="162"/>
+      <c r="E114" s="163"/>
       <c r="F114" s="122" t="s">
-        <v>72</v>
-      </c>
-      <c r="G114" s="169"/>
-      <c r="H114" s="127"/>
-      <c r="I114" s="128"/>
+        <v>71</v>
+      </c>
+      <c r="G114" s="224"/>
+      <c r="H114" s="158"/>
+      <c r="I114" s="156"/>
     </row>
     <row r="115" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B115" s="153"/>
-      <c r="C115" s="166"/>
-      <c r="D115" s="159"/>
-      <c r="E115" s="160"/>
+      <c r="B115" s="171"/>
+      <c r="C115" s="167"/>
+      <c r="D115" s="168"/>
+      <c r="E115" s="169"/>
       <c r="F115" s="122" t="s">
-        <v>75</v>
-      </c>
-      <c r="G115" s="167"/>
-      <c r="H115" s="127"/>
-      <c r="I115" s="128"/>
+        <v>74</v>
+      </c>
+      <c r="G115" s="222"/>
+      <c r="H115" s="158"/>
+      <c r="I115" s="156"/>
     </row>
     <row r="116" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B116" s="94"/>
@@ -6293,43 +6299,43 @@
       <c r="I116" s="121"/>
     </row>
     <row r="117" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B117" s="171" t="s">
-        <v>143</v>
-      </c>
-      <c r="C117" s="164"/>
-      <c r="D117" s="138"/>
-      <c r="E117" s="133"/>
+      <c r="B117" s="173" t="s">
+        <v>142</v>
+      </c>
+      <c r="C117" s="161"/>
+      <c r="D117" s="162"/>
+      <c r="E117" s="163"/>
       <c r="F117" s="122" t="s">
-        <v>72</v>
-      </c>
-      <c r="G117" s="172"/>
-      <c r="H117" s="127"/>
-      <c r="I117" s="128"/>
+        <v>71</v>
+      </c>
+      <c r="G117" s="230"/>
+      <c r="H117" s="158"/>
+      <c r="I117" s="156"/>
     </row>
     <row r="118" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B118" s="152"/>
-      <c r="C118" s="165"/>
-      <c r="D118" s="140"/>
-      <c r="E118" s="141"/>
+      <c r="B118" s="160"/>
+      <c r="C118" s="164"/>
+      <c r="D118" s="165"/>
+      <c r="E118" s="166"/>
       <c r="F118" s="122" t="s">
-        <v>75</v>
-      </c>
-      <c r="G118" s="173"/>
-      <c r="H118" s="127"/>
-      <c r="I118" s="128"/>
+        <v>74</v>
+      </c>
+      <c r="G118" s="223"/>
+      <c r="H118" s="158"/>
+      <c r="I118" s="156"/>
     </row>
     <row r="119" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="3"/>
-      <c r="B119" s="152"/>
-      <c r="C119" s="165"/>
-      <c r="D119" s="140"/>
-      <c r="E119" s="141"/>
+      <c r="B119" s="160"/>
+      <c r="C119" s="164"/>
+      <c r="D119" s="165"/>
+      <c r="E119" s="166"/>
       <c r="F119" s="122" t="s">
-        <v>77</v>
-      </c>
-      <c r="G119" s="173"/>
-      <c r="H119" s="127"/>
-      <c r="I119" s="128"/>
+        <v>76</v>
+      </c>
+      <c r="G119" s="223"/>
+      <c r="H119" s="158"/>
+      <c r="I119" s="156"/>
       <c r="J119" s="3"/>
       <c r="K119" s="3"/>
       <c r="L119" s="3"/>
@@ -6349,16 +6355,16 @@
       <c r="Z119" s="3"/>
     </row>
     <row r="120" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B120" s="153"/>
-      <c r="C120" s="166"/>
-      <c r="D120" s="159"/>
-      <c r="E120" s="160"/>
+      <c r="B120" s="171"/>
+      <c r="C120" s="167"/>
+      <c r="D120" s="168"/>
+      <c r="E120" s="169"/>
       <c r="F120" s="122" t="s">
-        <v>87</v>
-      </c>
-      <c r="G120" s="173"/>
-      <c r="H120" s="127"/>
-      <c r="I120" s="128"/>
+        <v>86</v>
+      </c>
+      <c r="G120" s="223"/>
+      <c r="H120" s="158"/>
+      <c r="I120" s="156"/>
     </row>
     <row r="121" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B121" s="94"/>
@@ -6371,114 +6377,114 @@
       <c r="I121" s="121"/>
     </row>
     <row r="122" spans="1:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B122" s="171" t="s">
-        <v>144</v>
-      </c>
-      <c r="C122" s="164"/>
-      <c r="D122" s="138"/>
-      <c r="E122" s="133"/>
+      <c r="B122" s="173" t="s">
+        <v>143</v>
+      </c>
+      <c r="C122" s="161"/>
+      <c r="D122" s="162"/>
+      <c r="E122" s="163"/>
       <c r="F122" s="122" t="s">
-        <v>72</v>
-      </c>
-      <c r="G122" s="169"/>
-      <c r="H122" s="127"/>
-      <c r="I122" s="128"/>
+        <v>71</v>
+      </c>
+      <c r="G122" s="224"/>
+      <c r="H122" s="158"/>
+      <c r="I122" s="156"/>
     </row>
     <row r="123" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B123" s="152"/>
-      <c r="C123" s="165"/>
-      <c r="D123" s="140"/>
-      <c r="E123" s="141"/>
+      <c r="B123" s="160"/>
+      <c r="C123" s="164"/>
+      <c r="D123" s="165"/>
+      <c r="E123" s="166"/>
       <c r="F123" s="122" t="s">
-        <v>75</v>
-      </c>
-      <c r="G123" s="167"/>
-      <c r="H123" s="127"/>
-      <c r="I123" s="128"/>
+        <v>74</v>
+      </c>
+      <c r="G123" s="222"/>
+      <c r="H123" s="158"/>
+      <c r="I123" s="156"/>
     </row>
     <row r="124" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B124" s="153"/>
-      <c r="C124" s="166"/>
-      <c r="D124" s="159"/>
-      <c r="E124" s="160"/>
+      <c r="B124" s="171"/>
+      <c r="C124" s="167"/>
+      <c r="D124" s="168"/>
+      <c r="E124" s="169"/>
       <c r="F124" s="122" t="s">
-        <v>77</v>
-      </c>
-      <c r="G124" s="167"/>
-      <c r="H124" s="127"/>
-      <c r="I124" s="128"/>
+        <v>76</v>
+      </c>
+      <c r="G124" s="222"/>
+      <c r="H124" s="158"/>
+      <c r="I124" s="156"/>
     </row>
     <row r="125" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="126" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B126" s="171" t="s">
-        <v>145</v>
-      </c>
-      <c r="C126" s="164"/>
-      <c r="D126" s="138"/>
-      <c r="E126" s="133"/>
+      <c r="B126" s="173" t="s">
+        <v>144</v>
+      </c>
+      <c r="C126" s="161"/>
+      <c r="D126" s="162"/>
+      <c r="E126" s="163"/>
       <c r="F126" s="122" t="s">
-        <v>72</v>
-      </c>
-      <c r="G126" s="169"/>
-      <c r="H126" s="127"/>
-      <c r="I126" s="128"/>
+        <v>71</v>
+      </c>
+      <c r="G126" s="224"/>
+      <c r="H126" s="158"/>
+      <c r="I126" s="156"/>
     </row>
     <row r="127" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B127" s="152"/>
-      <c r="C127" s="165"/>
-      <c r="D127" s="140"/>
-      <c r="E127" s="141"/>
+      <c r="B127" s="160"/>
+      <c r="C127" s="164"/>
+      <c r="D127" s="165"/>
+      <c r="E127" s="166"/>
       <c r="F127" s="122" t="s">
-        <v>75</v>
-      </c>
-      <c r="G127" s="167"/>
-      <c r="H127" s="127"/>
-      <c r="I127" s="128"/>
+        <v>74</v>
+      </c>
+      <c r="G127" s="222"/>
+      <c r="H127" s="158"/>
+      <c r="I127" s="156"/>
     </row>
     <row r="128" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B128" s="153"/>
-      <c r="C128" s="166"/>
-      <c r="D128" s="159"/>
-      <c r="E128" s="160"/>
+      <c r="B128" s="171"/>
+      <c r="C128" s="167"/>
+      <c r="D128" s="168"/>
+      <c r="E128" s="169"/>
       <c r="F128" s="122" t="s">
-        <v>77</v>
-      </c>
-      <c r="G128" s="167"/>
-      <c r="H128" s="127"/>
-      <c r="I128" s="128"/>
+        <v>76</v>
+      </c>
+      <c r="G128" s="222"/>
+      <c r="H128" s="158"/>
+      <c r="I128" s="156"/>
     </row>
     <row r="129" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="130" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B130" s="171" t="s">
-        <v>146</v>
-      </c>
-      <c r="C130" s="164"/>
-      <c r="D130" s="138"/>
-      <c r="E130" s="133"/>
+      <c r="B130" s="173" t="s">
+        <v>145</v>
+      </c>
+      <c r="C130" s="161"/>
+      <c r="D130" s="162"/>
+      <c r="E130" s="163"/>
       <c r="F130" s="122" t="s">
-        <v>72</v>
-      </c>
-      <c r="G130" s="169"/>
-      <c r="H130" s="127"/>
-      <c r="I130" s="128"/>
+        <v>71</v>
+      </c>
+      <c r="G130" s="224"/>
+      <c r="H130" s="158"/>
+      <c r="I130" s="156"/>
     </row>
     <row r="131" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B131" s="153"/>
-      <c r="C131" s="166"/>
-      <c r="D131" s="159"/>
-      <c r="E131" s="160"/>
+      <c r="B131" s="171"/>
+      <c r="C131" s="167"/>
+      <c r="D131" s="168"/>
+      <c r="E131" s="169"/>
       <c r="F131" s="122" t="s">
-        <v>75</v>
-      </c>
-      <c r="G131" s="167"/>
-      <c r="H131" s="127"/>
-      <c r="I131" s="128"/>
+        <v>74</v>
+      </c>
+      <c r="G131" s="222"/>
+      <c r="H131" s="158"/>
+      <c r="I131" s="156"/>
     </row>
     <row r="132" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="133" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="134" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B134" s="100" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C134" s="101"/>
       <c r="D134" s="101"/>
@@ -6499,118 +6505,118 @@
       <c r="I135" s="105"/>
     </row>
     <row r="136" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B136" s="168" t="s">
+      <c r="B136" s="155" t="s">
+        <v>105</v>
+      </c>
+      <c r="C136" s="156"/>
+      <c r="D136" s="155" t="s">
         <v>106</v>
       </c>
-      <c r="C136" s="128"/>
-      <c r="D136" s="168" t="s">
+      <c r="E136" s="158"/>
+      <c r="F136" s="158"/>
+      <c r="G136" s="155" t="s">
         <v>107</v>
       </c>
-      <c r="E136" s="127"/>
-      <c r="F136" s="127"/>
-      <c r="G136" s="168" t="s">
+      <c r="H136" s="156"/>
+      <c r="I136" s="106" t="s">
         <v>108</v>
       </c>
-      <c r="H136" s="128"/>
-      <c r="I136" s="106" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="137" spans="2:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B137" s="168" t="s">
-        <v>147</v>
-      </c>
-      <c r="C137" s="128"/>
-      <c r="D137" s="177"/>
-      <c r="E137" s="127"/>
-      <c r="F137" s="128"/>
-      <c r="G137" s="178"/>
-      <c r="H137" s="128"/>
+      <c r="B137" s="155" t="s">
+        <v>146</v>
+      </c>
+      <c r="C137" s="156"/>
+      <c r="D137" s="231"/>
+      <c r="E137" s="158"/>
+      <c r="F137" s="156"/>
+      <c r="G137" s="229"/>
+      <c r="H137" s="156"/>
       <c r="I137" s="106"/>
     </row>
     <row r="138" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B138" s="168"/>
-      <c r="C138" s="128"/>
-      <c r="D138" s="167"/>
-      <c r="E138" s="127"/>
-      <c r="F138" s="128"/>
-      <c r="G138" s="168"/>
-      <c r="H138" s="128"/>
+      <c r="B138" s="155"/>
+      <c r="C138" s="156"/>
+      <c r="D138" s="222"/>
+      <c r="E138" s="158"/>
+      <c r="F138" s="156"/>
+      <c r="G138" s="155"/>
+      <c r="H138" s="156"/>
       <c r="I138" s="106"/>
     </row>
     <row r="139" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B139" s="168"/>
-      <c r="C139" s="128"/>
-      <c r="D139" s="167"/>
-      <c r="E139" s="127"/>
-      <c r="F139" s="128"/>
-      <c r="G139" s="168"/>
-      <c r="H139" s="128"/>
+      <c r="B139" s="155"/>
+      <c r="C139" s="156"/>
+      <c r="D139" s="222"/>
+      <c r="E139" s="158"/>
+      <c r="F139" s="156"/>
+      <c r="G139" s="155"/>
+      <c r="H139" s="156"/>
       <c r="I139" s="106"/>
     </row>
     <row r="140" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B140" s="168"/>
-      <c r="C140" s="128"/>
-      <c r="D140" s="167"/>
-      <c r="E140" s="127"/>
-      <c r="F140" s="128"/>
-      <c r="G140" s="168"/>
-      <c r="H140" s="128"/>
+      <c r="B140" s="155"/>
+      <c r="C140" s="156"/>
+      <c r="D140" s="222"/>
+      <c r="E140" s="158"/>
+      <c r="F140" s="156"/>
+      <c r="G140" s="155"/>
+      <c r="H140" s="156"/>
       <c r="I140" s="106"/>
     </row>
     <row r="141" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B141" s="168"/>
-      <c r="C141" s="128"/>
-      <c r="D141" s="167"/>
-      <c r="E141" s="127"/>
-      <c r="F141" s="128"/>
-      <c r="G141" s="168"/>
-      <c r="H141" s="128"/>
+      <c r="B141" s="155"/>
+      <c r="C141" s="156"/>
+      <c r="D141" s="222"/>
+      <c r="E141" s="158"/>
+      <c r="F141" s="156"/>
+      <c r="G141" s="155"/>
+      <c r="H141" s="156"/>
       <c r="I141" s="106"/>
     </row>
     <row r="142" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B142" s="168"/>
-      <c r="C142" s="128"/>
-      <c r="D142" s="167"/>
-      <c r="E142" s="127"/>
-      <c r="F142" s="128"/>
-      <c r="G142" s="168"/>
-      <c r="H142" s="128"/>
+      <c r="B142" s="155"/>
+      <c r="C142" s="156"/>
+      <c r="D142" s="222"/>
+      <c r="E142" s="158"/>
+      <c r="F142" s="156"/>
+      <c r="G142" s="155"/>
+      <c r="H142" s="156"/>
       <c r="I142" s="106"/>
     </row>
     <row r="143" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B143" s="168"/>
-      <c r="C143" s="128"/>
-      <c r="D143" s="177"/>
-      <c r="E143" s="127"/>
-      <c r="F143" s="128"/>
-      <c r="G143" s="178"/>
-      <c r="H143" s="128"/>
+      <c r="B143" s="155"/>
+      <c r="C143" s="156"/>
+      <c r="D143" s="231"/>
+      <c r="E143" s="158"/>
+      <c r="F143" s="156"/>
+      <c r="G143" s="229"/>
+      <c r="H143" s="156"/>
       <c r="I143" s="106"/>
     </row>
     <row r="144" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B144" s="168"/>
-      <c r="C144" s="128"/>
-      <c r="D144" s="177"/>
-      <c r="E144" s="127"/>
-      <c r="F144" s="128"/>
-      <c r="G144" s="168"/>
-      <c r="H144" s="128"/>
+      <c r="B144" s="155"/>
+      <c r="C144" s="156"/>
+      <c r="D144" s="231"/>
+      <c r="E144" s="158"/>
+      <c r="F144" s="156"/>
+      <c r="G144" s="155"/>
+      <c r="H144" s="156"/>
       <c r="I144" s="106"/>
     </row>
     <row r="145" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B145" s="168"/>
-      <c r="C145" s="128"/>
-      <c r="D145" s="167"/>
-      <c r="E145" s="127"/>
-      <c r="F145" s="128"/>
-      <c r="G145" s="168"/>
-      <c r="H145" s="128"/>
+      <c r="B145" s="155"/>
+      <c r="C145" s="156"/>
+      <c r="D145" s="222"/>
+      <c r="E145" s="158"/>
+      <c r="F145" s="156"/>
+      <c r="G145" s="155"/>
+      <c r="H145" s="156"/>
       <c r="I145" s="106"/>
     </row>
     <row r="146" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B146" s="107" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="147" spans="2:9" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7469,39 +7475,82 @@
     <row r="1000" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="136">
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="G85:I85"/>
-    <mergeCell ref="G86:I86"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="G89:I89"/>
-    <mergeCell ref="G90:I90"/>
-    <mergeCell ref="G91:I91"/>
-    <mergeCell ref="G92:I92"/>
-    <mergeCell ref="G93:I93"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="C53:I53"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="B59:I59"/>
-    <mergeCell ref="B62:I62"/>
-    <mergeCell ref="B63:I63"/>
-    <mergeCell ref="B66:I66"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="C72:E75"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="G72:I72"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B77:B82"/>
+    <mergeCell ref="C77:E82"/>
+    <mergeCell ref="B84:B87"/>
+    <mergeCell ref="C84:E87"/>
+    <mergeCell ref="B89:B93"/>
+    <mergeCell ref="C89:E93"/>
+    <mergeCell ref="B95:B101"/>
+    <mergeCell ref="C95:E101"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="G84:I84"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="G79:I79"/>
+    <mergeCell ref="G80:I80"/>
+    <mergeCell ref="G81:I81"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="B117:B120"/>
+    <mergeCell ref="B122:B124"/>
+    <mergeCell ref="B126:B128"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="B136:C136"/>
+    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="B103:B107"/>
+    <mergeCell ref="C103:E107"/>
+    <mergeCell ref="B110:B112"/>
+    <mergeCell ref="C110:E112"/>
+    <mergeCell ref="C114:E115"/>
+    <mergeCell ref="D142:F142"/>
+    <mergeCell ref="D143:F143"/>
+    <mergeCell ref="D144:F144"/>
+    <mergeCell ref="D145:F145"/>
+    <mergeCell ref="C117:E120"/>
+    <mergeCell ref="C122:E124"/>
+    <mergeCell ref="C126:E128"/>
+    <mergeCell ref="C130:E131"/>
+    <mergeCell ref="D136:F136"/>
+    <mergeCell ref="D137:F137"/>
+    <mergeCell ref="D138:F138"/>
+    <mergeCell ref="B142:C142"/>
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="B144:C144"/>
+    <mergeCell ref="B145:C145"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="B140:C140"/>
+    <mergeCell ref="B141:C141"/>
+    <mergeCell ref="D139:F139"/>
+    <mergeCell ref="D140:F140"/>
+    <mergeCell ref="D141:F141"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="G114:I114"/>
+    <mergeCell ref="G115:I115"/>
+    <mergeCell ref="G117:I117"/>
+    <mergeCell ref="G118:I118"/>
+    <mergeCell ref="G119:I119"/>
+    <mergeCell ref="G120:I120"/>
+    <mergeCell ref="G122:I122"/>
+    <mergeCell ref="G123:I123"/>
+    <mergeCell ref="G124:I124"/>
+    <mergeCell ref="G126:I126"/>
+    <mergeCell ref="G139:H139"/>
+    <mergeCell ref="G140:H140"/>
+    <mergeCell ref="G141:H141"/>
+    <mergeCell ref="G142:H142"/>
+    <mergeCell ref="G143:H143"/>
+    <mergeCell ref="G144:H144"/>
     <mergeCell ref="G145:H145"/>
     <mergeCell ref="G127:I127"/>
     <mergeCell ref="G128:I128"/>
@@ -7526,85 +7575,42 @@
     <mergeCell ref="C48:I48"/>
     <mergeCell ref="D51:G51"/>
     <mergeCell ref="H51:I51"/>
-    <mergeCell ref="G123:I123"/>
-    <mergeCell ref="G124:I124"/>
-    <mergeCell ref="G126:I126"/>
-    <mergeCell ref="G139:H139"/>
-    <mergeCell ref="G140:H140"/>
-    <mergeCell ref="G141:H141"/>
-    <mergeCell ref="G142:H142"/>
-    <mergeCell ref="G143:H143"/>
-    <mergeCell ref="G144:H144"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="G114:I114"/>
-    <mergeCell ref="G115:I115"/>
-    <mergeCell ref="G117:I117"/>
-    <mergeCell ref="G118:I118"/>
-    <mergeCell ref="G119:I119"/>
-    <mergeCell ref="G120:I120"/>
-    <mergeCell ref="G122:I122"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="D142:F142"/>
-    <mergeCell ref="D143:F143"/>
-    <mergeCell ref="D144:F144"/>
-    <mergeCell ref="D145:F145"/>
-    <mergeCell ref="C117:E120"/>
-    <mergeCell ref="C122:E124"/>
-    <mergeCell ref="C126:E128"/>
-    <mergeCell ref="C130:E131"/>
-    <mergeCell ref="D136:F136"/>
-    <mergeCell ref="D137:F137"/>
-    <mergeCell ref="D138:F138"/>
-    <mergeCell ref="B142:C142"/>
-    <mergeCell ref="B143:C143"/>
-    <mergeCell ref="B144:C144"/>
-    <mergeCell ref="B145:C145"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="B117:B120"/>
-    <mergeCell ref="B122:B124"/>
-    <mergeCell ref="B126:B128"/>
-    <mergeCell ref="B130:B131"/>
-    <mergeCell ref="B136:C136"/>
-    <mergeCell ref="B137:C137"/>
-    <mergeCell ref="B103:B107"/>
-    <mergeCell ref="C103:E107"/>
-    <mergeCell ref="B110:B112"/>
-    <mergeCell ref="C110:E112"/>
-    <mergeCell ref="C114:E115"/>
-    <mergeCell ref="B138:C138"/>
-    <mergeCell ref="B139:C139"/>
-    <mergeCell ref="B140:C140"/>
-    <mergeCell ref="B141:C141"/>
-    <mergeCell ref="D139:F139"/>
-    <mergeCell ref="D140:F140"/>
-    <mergeCell ref="D141:F141"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="C53:I53"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="B59:I59"/>
+    <mergeCell ref="B62:I62"/>
+    <mergeCell ref="B63:I63"/>
+    <mergeCell ref="B66:I66"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="C72:E75"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="G72:I72"/>
     <mergeCell ref="B72:B75"/>
-    <mergeCell ref="B77:B82"/>
-    <mergeCell ref="C77:E82"/>
-    <mergeCell ref="B84:B87"/>
-    <mergeCell ref="C84:E87"/>
-    <mergeCell ref="B89:B93"/>
-    <mergeCell ref="C89:E93"/>
-    <mergeCell ref="B95:B101"/>
-    <mergeCell ref="C95:E101"/>
-    <mergeCell ref="G82:I82"/>
-    <mergeCell ref="G84:I84"/>
     <mergeCell ref="G73:I73"/>
     <mergeCell ref="G74:I74"/>
-    <mergeCell ref="G77:I77"/>
-    <mergeCell ref="G78:I78"/>
-    <mergeCell ref="G79:I79"/>
-    <mergeCell ref="G80:I80"/>
-    <mergeCell ref="G81:I81"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="G85:I85"/>
+    <mergeCell ref="G86:I86"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="G89:I89"/>
+    <mergeCell ref="G90:I90"/>
+    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="G92:I92"/>
+    <mergeCell ref="G93:I93"/>
+    <mergeCell ref="G95:I95"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="D34:D37 H34:H37 D39 H39 D41:D46 H41:H46" xr:uid="{00000000-0002-0000-0100-000000000000}">
